--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="703">
   <si>
     <t>Variable Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PANORAMA_TYPE</t>
   </si>
   <si>
-    <t>static</t>
+    <t>cloud</t>
   </si>
   <si>
     <t>Panorama management IP type - static or cloud (for dhcp)</t>
@@ -110,6 +110,9 @@
     <t>MGMT_TYPE</t>
   </si>
   <si>
+    <t>dhcp-cloud</t>
+  </si>
+  <si>
     <t>firewall management IP type (static or dhcp-cloud)</t>
   </si>
   <si>
@@ -388,7 +391,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">set deviceconfig setting ctd allow-http-range no
+    <t xml:space="preserve">set deviceconfig setting ctd skip-block-http-range yes
 </t>
   </si>
   <si>
@@ -3206,197 +3209,197 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3414,32 +3417,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3492,12 +3495,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3514,267 +3517,267 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -3797,17 +3800,17 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -3818,392 +3821,392 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:1">
@@ -4220,162 +4223,162 @@
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:1">
@@ -4392,62 +4395,62 @@
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -4464,62 +4467,62 @@
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:1">
@@ -4536,67 +4539,67 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:1">
@@ -4613,37 +4616,37 @@
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="244" spans="1:1">
@@ -4660,2132 +4663,2132 @@
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshoaf/iron-skillet/templates/panos/set_commands/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA86B04-7C8C-9947-A553-17AC27E7953B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="values" sheetId="1" r:id="rId1"/>
     <sheet name="set commands" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="698">
   <si>
     <t>Variable Name</t>
   </si>
@@ -693,22 +699,6 @@
   </si>
   <si>
     <t xml:space="preserve">set shared log-settings profiles default match-list Data_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding log-type gtp
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding send-syslog Sample_Syslog_Profile
 </t>
   </si>
   <si>
@@ -2746,8 +2736,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2793,6 +2783,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2839,7 +2837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2871,9 +2869,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2905,6 +2921,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3080,18 +3114,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3113,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3124,7 +3157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3135,7 +3168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3146,7 +3179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3157,7 +3190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3168,7 +3201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3179,7 +3212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3190,7 +3223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3201,7 +3234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3212,7 +3245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3223,7 +3256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +3267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3245,7 +3278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3256,7 +3289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3267,7 +3300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3278,7 +3311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3289,7 +3322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3300,7 +3333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -3311,7 +3344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3322,7 +3355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -3333,7 +3366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -3344,7 +3377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -3355,7 +3388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -3366,7 +3399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3377,7 +3410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -3388,7 +3421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3405,3387 +3438,3369 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A671"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A667"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", values!B10)</f>
+        <v>set deviceconfig system hostname sample</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", values!B12)</f>
+        <v>set deviceconfig system ip-address 192.0.2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", values!B13)</f>
+        <v>set deviceconfig system netmask 255.255.128.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", values!B14)</f>
+        <v>set deviceconfig system default-gateway 192.0.2.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", values!B19)</f>
+        <v>set deviceconfig system dns-setting servers primary 8.8.8.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", values!B20)</f>
+        <v>set deviceconfig system dns-setting servers secondary 8.8.4.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", values!B15)</f>
+        <v>set deviceconfig system ntp-servers primary-ntp-server ntp-server-address 0.pool.ntp.org</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", values!B16)</f>
+        <v>set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address 1.pool.ntp.org</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", values!B17)</f>
+        <v>set mgt-config users admin password</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", values!B17)</f>
+        <v>set mgt-config users admin permissions role-based superuser yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", values!B24)</f>
+        <v>set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway 192.0.2.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", values!B25)</f>
+        <v>set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from sentfrom@yourdomain.com</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", values!B26)</f>
+        <v>set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to sendto@yourdomain.com</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
-        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", values!B27)</f>
+        <v>set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server 192.0.2.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="str">
+        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", values!B21)</f>
+        <v>set address Sinkhole-IPv4 ip-netmask 72.5.65.111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="str">
+        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", values!B22)</f>
+        <v>set address Sinkhole-IPv6 ip-netmask 2600:5200::1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158">
-        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159">
-        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="str">
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", values!B21)</f>
+        <v>set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address 72.5.65.111</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="str">
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", values!B22)</f>
+        <v>set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address 2600:5200::1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="str">
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", values!B21)</f>
+        <v>set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address 72.5.65.111</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="str">
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", values!B22)</f>
+        <v>set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address 2600:5200::1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="str">
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", values!B21)</f>
+        <v>set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address 72.5.65.111</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="str">
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", values!B22)</f>
+        <v>set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address 2600:5200::1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="str">
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", values!B21)</f>
+        <v>set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address 72.5.65.111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="str">
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", values!B22)</f>
+        <v>set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address 2600:5200::1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="str">
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", values!B21)</f>
+        <v>set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address 72.5.65.111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="str">
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", values!B22)</f>
+        <v>set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address 2600:5200::1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
-      <c r="A521" t="s">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
-      <c r="A522" t="s">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
-      <c r="A523" t="s">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
-      <c r="A524" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
-      <c r="A540" t="s">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
-      <c r="A541" t="s">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="542" spans="1:1">
-      <c r="A542" t="s">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="543" spans="1:1">
-      <c r="A543" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="565" spans="1:1">
-      <c r="A565" t="s">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="566" spans="1:1">
-      <c r="A566" t="s">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="567" spans="1:1">
-      <c r="A567" t="s">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="568" spans="1:1">
-      <c r="A568" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="581" spans="1:1">
-      <c r="A581" t="s">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="582" spans="1:1">
-      <c r="A582" t="s">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="583" spans="1:1">
-      <c r="A583" t="s">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="584" spans="1:1">
-      <c r="A584" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="653" spans="1:1">
-      <c r="A653" t="s">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="654" spans="1:1">
-      <c r="A654" t="s">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="655" spans="1:1">
-      <c r="A655" t="s">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="656" spans="1:1">
-      <c r="A656" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="664" spans="1:1">
-      <c r="A664" t="s">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="665" spans="1:1">
-      <c r="A665" t="s">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="666" spans="1:1">
-      <c r="A666" t="s">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1">
-      <c r="A667" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1">
-      <c r="A668" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1">
-      <c r="A669" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1">
-      <c r="A670" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1">
-      <c r="A671" t="s">
-        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="699">
   <si>
     <t>Variable Name</t>
   </si>
@@ -696,22 +696,6 @@
   </si>
   <si>
     <t xml:space="preserve">set shared log-settings profiles default match-list Data_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding log-type gtp
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list GTP_Log_Forwarding send-syslog Sample_Syslog_Profile
 </t>
   </si>
   <si>
@@ -3409,7 +3393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A671"/>
+  <dimension ref="A2:A667"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4111,27 +4095,27 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -4141,27 +4125,27 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:1">
@@ -4181,22 +4165,24 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>213</v>
+      <c r="A154">
+        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>214</v>
+      <c r="A155">
+        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1">
@@ -4206,24 +4192,22 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158">
-        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A158" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159">
-        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
+      <c r="A159" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -4353,44 +4337,44 @@
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>243</v>
+      <c r="A188">
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>244</v>
+      <c r="A189">
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1">
@@ -4434,35 +4418,35 @@
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>254</v>
+      <c r="A202">
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>255</v>
+      <c r="A203">
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1">
@@ -4506,35 +4490,35 @@
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>266</v>
+      <c r="A216">
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>267</v>
+      <c r="A217">
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:1">
@@ -4583,45 +4567,45 @@
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>279</v>
+      <c r="A231">
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>280</v>
+      <c r="A232">
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A235" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
+      <c r="A236" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="239" spans="1:1">
@@ -4630,50 +4614,50 @@
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>285</v>
+      <c r="A240">
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>286</v>
+      <c r="A241">
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A244" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
+      <c r="A245" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
     </row>
     <row r="249" spans="1:1">
@@ -4793,27 +4777,27 @@
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>314</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
     </row>
     <row r="277" spans="1:1">
@@ -5108,27 +5092,27 @@
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>376</v>
+        <v>86</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>86</v>
+        <v>379</v>
       </c>
     </row>
     <row r="340" spans="1:1">
@@ -5403,27 +5387,27 @@
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>434</v>
+        <v>86</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>86</v>
+        <v>437</v>
       </c>
     </row>
     <row r="399" spans="1:1">
@@ -5493,27 +5477,27 @@
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>451</v>
+        <v>86</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>86</v>
+        <v>454</v>
       </c>
     </row>
     <row r="417" spans="1:1">
@@ -5643,27 +5627,27 @@
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>480</v>
+        <v>86</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>86</v>
+        <v>483</v>
       </c>
     </row>
     <row r="447" spans="1:1">
@@ -6033,27 +6017,27 @@
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>557</v>
+        <v>86</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>86</v>
+        <v>560</v>
       </c>
     </row>
     <row r="525" spans="1:1">
@@ -6128,27 +6112,27 @@
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>575</v>
+        <v>86</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>86</v>
+        <v>578</v>
       </c>
     </row>
     <row r="544" spans="1:1">
@@ -6253,27 +6237,27 @@
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>599</v>
+        <v>86</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>86</v>
+        <v>602</v>
       </c>
     </row>
     <row r="569" spans="1:1">
@@ -6333,27 +6317,27 @@
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>614</v>
+        <v>86</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>86</v>
+        <v>617</v>
       </c>
     </row>
     <row r="585" spans="1:1">
@@ -6693,27 +6677,27 @@
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>685</v>
+        <v>86</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>86</v>
+        <v>688</v>
       </c>
     </row>
     <row r="657" spans="1:1">
@@ -6748,47 +6732,27 @@
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>695</v>
+        <v>86</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1">
-      <c r="A668" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1">
-      <c r="A669" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1">
-      <c r="A670" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1">
-      <c r="A671" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="701">
   <si>
     <t>Variable Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PANORAMA_TYPE</t>
   </si>
   <si>
-    <t>cloud</t>
+    <t>static</t>
   </si>
   <si>
     <t>Panorama management IP type - static or cloud (for dhcp)</t>
@@ -47,7 +47,7 @@
     <t>PANORAMA_IP</t>
   </si>
   <si>
-    <t>192.168.55.7</t>
+    <t>192.168.55.8</t>
   </si>
   <si>
     <t>Panorama IP</t>
@@ -80,6 +80,15 @@
     <t>IP address for scheduled config exports</t>
   </si>
   <si>
+    <t>TEMPLATE</t>
+  </si>
+  <si>
+    <t>sample_template</t>
+  </si>
+  <si>
+    <t>Template name for Panorama</t>
+  </si>
+  <si>
     <t>STACK</t>
   </si>
   <si>
@@ -110,10 +119,7 @@
     <t>MGMT_TYPE</t>
   </si>
   <si>
-    <t>dhcp-cloud</t>
-  </si>
-  <si>
-    <t>firewall management IP type (static or dhcp-cloud)</t>
+    <t>firewall management IP type (static or dhcp-client)</t>
   </si>
   <si>
     <t>MGMT_IP</t>
@@ -3068,7 +3074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3204,73 +3210,73 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -3281,109 +3287,120 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3401,3358 +3418,3358 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B10)</f>
+        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B12)</f>
+        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B13)</f>
+        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B14)</f>
+        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B19)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B20)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B15)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B16)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B24)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B26)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B27)</f>
+        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="702">
   <si>
     <t>Variable Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PANORAMA_TYPE</t>
   </si>
   <si>
-    <t>static</t>
+    <t>cloud</t>
   </si>
   <si>
     <t>Panorama management IP type - static or cloud (for dhcp)</t>
@@ -119,6 +119,9 @@
     <t>MGMT_TYPE</t>
   </si>
   <si>
+    <t>dhcp-client</t>
+  </si>
+  <si>
     <t>firewall management IP type (static or dhcp-client)</t>
   </si>
   <si>
@@ -269,7 +272,7 @@
     <t>include the predefined Palo Alto Networks external lists</t>
   </si>
   <si>
-    <t xml:space="preserve"># set command configuration for panos version 8.1
+    <t xml:space="preserve"># set command configuration for panos version 8.0
 </t>
   </si>
   <si>
@@ -3210,197 +3213,197 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3418,32 +3421,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3496,12 +3499,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3518,267 +3521,267 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -3801,17 +3804,17 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -3822,372 +3825,372 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:1">
@@ -4204,162 +4207,162 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -4376,62 +4379,62 @@
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:1">
@@ -4448,62 +4451,62 @@
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -4520,67 +4523,67 @@
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:1">
@@ -4597,37 +4600,37 @@
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:1">
@@ -4644,2132 +4647,2132 @@
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="701">
   <si>
     <t>Variable Name</t>
   </si>
@@ -272,2471 +272,1852 @@
     <t>include the predefined Palo Alto Networks external lists</t>
   </si>
   <si>
-    <t xml:space="preserve"># set command configuration for panos version 8.0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># commands are expected to be load in order
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># this template uses jinja format
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># either 'search and replace' or the scripts in the tools dir can be used to create a loadable configuration
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># management interface configuration - may be skipped if already online
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># remove admin/admin default and add user defined super user
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete mgt-config users admin
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># device system and settings configuration
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service application-reports yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service threat-prevention-reports yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service threat-prevention-pcap yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service threat-prevention-information yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service passive-dns-monitoring yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service url-reports yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service health-performance-reports yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule statistics-service file-identification-reports yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule threats recurring every-30-mins at 2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule threats recurring every-30-mins action download-and-install
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule threats recurring threshold 48
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule anti-virus recurring hourly at 4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule anti-virus recurring hourly action download-and-install
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system update-schedule wildfire recurring every-min action download-and-install
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system snmp-setting access-setting version v3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system login-banner "You have accessed a protected system. Log off immediately if you are not an authorized user."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system timezone UTC
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system type dhcp-client send-hostname yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system type dhcp-client send-client-id no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system type dhcp-client accept-dhcp-hostname no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig system type dhcp-client accept-dhcp-domain no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting ctd strip-x-fwd-for yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting ctd x-forwarded-for yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting ctd skip-block-http-range yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting ctd tcp-bypass-exceed-queue no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting ctd udp-bypass-exceed-queue no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting management enable-log-high-dp-load yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit pe size-limit 10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit apk size-limit 30
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit pdf size-limit 1000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit ms-office size-limit 2000
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit jar size-limit 5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit flash size-limit 5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit MacOSX size-limit 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit archive size-limit 10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire file-size-limit linux size-limit 2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire report-benign-file yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting wildfire report-grayware-file yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting config rematch yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting application notify-user yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting application bypass-exceed-queue no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting logging log-suppression no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting tcp urgent-data clear
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting tcp drop-zero-flag yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting tcp bypass-exceed-oo-queue no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting tcp check-timestamp-option yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set deviceconfig setting tcp strip-mptcp-option yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Email and Syslog Profile Server Settings
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings email Sample_Email_Profile server Sample_Email_Profile display-name Threat_Alerts
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog transport UDP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog port 514
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog format BSD
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog facility LOG_USER
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Device Log Settings
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings system match-list Email_Critical_System_Logs send-email Sample_Email_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings system match-list Email_Critical_System_Logs filter "(severity eq critical)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings system match-list Email_Critical_System_Logs description "Email Critical System Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings system match-list System_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings system match-list System_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings system match-list System_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings config match-list Configuration_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings config match-list Configuration_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings config match-list Configuration_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings userid match-list User-ID_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings userid match-list User-ID_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings userid match-list User-ID_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings hipmatch match-list HIP_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings hipmatch match-list HIP_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings hipmatch match-list HIP_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Log Forwarding Profile Objects
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Traffic_Log_Forwarding log-type traffic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Traffic_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Traffic_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Traffic_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Threat_Log_Forwarding log-type threat
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Threat_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Threat_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Threat_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Malicious_Verdicts send-email Sample_Email_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Malicious_Verdicts action-desc "Email Malicious Wildfire Verdicts"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Malicious_Verdicts log-type wildfire
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Malicious_Verdicts filter "(verdict eq malicious)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Malicious_Verdicts send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Phishing_Verdicts send-email Sample_Email_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Phishing_Verdicts action-desc "Email Phishing Wildfire Verdicts"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Phishing_Verdicts log-type wildfire
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Phishing_Verdicts filter "(verdict eq phishing)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Email_Phishing_Verdicts send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Wildfire_Log_Forwarding log-type wildfire
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Wildfire_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Wildfire_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Wildfire_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list URL_Log_Forwarding log-type url
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list URL_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list URL_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list URL_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Data_Log_Forwarding log-type data
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Data_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Data_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Data_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Tunnel_Log_Forwarding log-type tunnel
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Tunnel_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Tunnel_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Tunnel_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Auth_Log_Forwarding log-type auth
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Auth_Log_Forwarding filter "All Logs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Auth_Log_Forwarding send-to-panorama no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared log-settings profiles default match-list Auth_Log_Forwarding send-syslog Sample_Syslog_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Tags referenced in security rules
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set tag Outbound comments "Outbound to the Internet"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set tag Inbound comments "Inbound from the Internet"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set tag Internal comments "Internal to Internal"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set tag iron-skillet-version comments "version 1.0.4: version of this iron-skillet template file"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#External Dynamic List values used in security rules
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set external-list "Team Cymru Bogons IPv4" type ip recurring hourly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set external-list "Team Cymru Bogons IPv4" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv4.txt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set external-list "Team Cymru Bogons IPv4" type ip description "IPv4 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set external-list "Team Cymru Bogons IPv6" type ip recurring hourly
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set external-list "Team Cymru Bogons IPv6" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv6.txt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set external-list "Team Cymru Bogons IPv6" type ip description "IPv6 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Address objects used for sinkholing and security rules match
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#File Blocking Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Alert-All application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Alert-All file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Alert-All direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Alert-All action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Block application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Block file-type [ 7z bat chm class cpl dll hlp hta jar ocx pif scr torrent vbe wsf ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Block direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Outbound-FB rules Block action block
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Alert-All application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Alert-All file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Alert-All direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Alert-All action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Block application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Block file-type [ 7z bat chm class cpl dll hlp hta jar ocx pif scr torrent vbe wsf ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Block direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Inbound-FB rules Block action block
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Alert-All application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Alert-All file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Alert-All direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Alert-All action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Block application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Block file-type [ 7z bat chm class cpl hlp hta jar ocx pif scr torrent vbe wsf ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Block direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Internal-FB rules Block action block
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Alert-Only-FB rules Alert-Only application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Alert-Only-FB rules Alert-Only file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Alert-Only-FB rules Alert-Only direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles file-blocking Alert-Only-FB rules Alert-Only action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Anti-Spyware Profile  with Sinkholing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS botnet-domains packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS botnet-domains lists default-paloalto-dns action sinkhole
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Block-Critical-High-Medium action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Block-Critical-High-Medium severity [ high critical medium ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Block-Critical-High-Medium threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Block-Critical-High-Medium category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Block-Critical-High-Medium packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Default-Low-Info action default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Default-Low-Info severity [ low informational ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Default-Low-Info threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Default-Low-Info category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Outbound-AS rules Default-Low-Info packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS botnet-domains packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS botnet-domains lists default-paloalto-dns action sinkhole
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Block-Critical-High-Medium action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Block-Critical-High-Medium severity [ high critical medium ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Block-Critical-High-Medium threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Block-Critical-High-Medium category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Block-Critical-High-Medium packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Default-Low-Info action default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Default-Low-Info severity [ low informational ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Default-Low-Info threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Default-Low-Info category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Inbound-AS rules Default-Low-Info packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS botnet-domains packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS botnet-domains lists default-paloalto-dns action sinkhole
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Block-Critical-High action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Block-Critical-High severity [ high critical ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Block-Critical-High threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Block-Critical-High category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Block-Critical-High packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Default-Medium-Low-Info action default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Default-Medium-Low-Info severity [ low informational medium ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Default-Medium-Low-Info threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Default-Medium-Low-Info category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Internal-AS rules Default-Medium-Low-Info packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Alert-Only-AS botnet-domains lists default-paloalto-dns action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Alert-Only-AS botnet-domains packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Alert-Only-AS rules Alert-All action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Alert-Only-AS rules Alert-All severity any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Alert-Only-AS rules Alert-All threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Alert-Only-AS rules Alert-All category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Alert-Only-AS rules Alert-All packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Exception-AS botnet-domains packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles spyware Exception-AS botnet-domains lists default-paloalto-dns action sinkhole
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#URL Filtering Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles custom-url-category Black-List
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles custom-url-category White-List
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles custom-url-category Custom-No-Decrypt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL credential-enforcement mode ip-user
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL credential-enforcement log-severity high
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL log-http-hdr-user-agent yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL log-http-hdr-referer yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL log-http-hdr-xff yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL action block
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting White-List ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Outbound-URL block [ command-and-control hacking malware phishing Black-List ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Alert-Only-URL credential-enforcement mode ip-user
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Alert-Only-URL credential-enforcement log-severity medium
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Alert-Only-URL credential-enforcement alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Alert-Only-URL action block
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Alert-Only-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL credential-enforcement mode ip-user
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL credential-enforcement log-severity high
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL log-http-hdr-user-agent yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL log-http-hdr-referer yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL log-http-hdr-xff yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL action block
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting White-List ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles url-filtering Exception-URL block [ command-and-control hacking malware phishing Black-List ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AntiVirus Profiles
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder ftp action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder ftp wildfire-action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder http action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder http wildfire-action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder imap action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder imap wildfire-action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder pop3 action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder pop3 wildfire-action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder smb action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder smb wildfire-action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder smtp action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Alert-Only-AV decoder smtp wildfire-action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder ftp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder ftp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder http action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder http wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder imap action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder imap wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder pop3 action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder pop3 wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder smb action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder smb wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder smtp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Outbound-AV decoder smtp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder ftp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder ftp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder http action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder http wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder imap action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder imap wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder pop3 action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder pop3 wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder smb action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder smb wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder smtp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Inbound-AV decoder smtp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder ftp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder ftp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder http action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder http wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder imap action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder imap wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder pop3 action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder pop3 wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder smb action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder smb wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder smtp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Internal-AV decoder smtp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder ftp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder ftp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder http action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder http wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder imap action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder imap wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder pop3 action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder pop3 wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder smb action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder smb wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder smtp action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV decoder smtp wildfire-action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles virus Exception-AV description "Use this profile for rules needing modifications to the standard"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Vulnerability Protection Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium vendor-id any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium severity [ critical high medium ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium cve any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium host any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info action default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info vendor-id any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info severity [ low informational ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info cve any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info host any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Outbound-VP rules Default-Low-Info packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium vendor-id any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium severity [ critical high medium ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium cve any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium host any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info action default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info vendor-id any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info severity [ low informational ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info cve any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info host any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Inbound-VP rules Default-Low-Info packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High action reset-both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High vendor-id any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High severity [ critical high ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High cve any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High host any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Block-Critical-High packet-capture single-packet
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info action default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info vendor-id any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info severity [ low informational medium ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info cve any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info host any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Internal-VP rules Default-Medium-Low-Info packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All vendor-id any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All severity any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All cve any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All threat-name any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All host any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Alert-Only-VP rules Alert-All packet-capture disable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles vulnerability Exception-VP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Wildfire Analysis Profiles
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Outbound-WF rules Forward-All application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Outbound-WF rules Forward-All file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Outbound-WF rules Forward-All direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Outbound-WF rules Forward-All analysis public-cloud
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Inbound-WF rules Forward-All application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Inbound-WF rules Forward-All file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Inbound-WF rules Forward-All direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Inbound-WF rules Forward-All analysis public-cloud
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Internal-WF rules Forward-All application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Internal-WF rules Forward-All file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Internal-WF rules Forward-All direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Internal-WF rules Forward-All analysis public-cloud
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Alert-Only-WF rules Forward-All application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Alert-Only-WF rules Forward-All file-type any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Alert-Only-WF rules Forward-All direction both
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles wildfire-analysis Alert-Only-WF rules Forward-All analysis public-cloud
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Profile Groups
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Outbound virus Outbound-AV
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Outbound spyware Outbound-AS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Outbound vulnerability Outbound-VP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Outbound url-filtering Outbound-URL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Outbound file-blocking Outbound-FB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Outbound wildfire-analysis Outbound-WF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Inbound virus Inbound-AV
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Inbound spyware Inbound-AS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Inbound vulnerability Inbound-VP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Inbound file-blocking Inbound-FB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Inbound wildfire-analysis Inbound-WF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Internal virus Internal-AV
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Internal spyware Internal-AS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Internal vulnerability Internal-VP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Internal file-blocking Internal-FB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Internal wildfire-analysis Internal-WF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Alert-Only virus Alert-Only-AV
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Alert-Only spyware Alert-Only-AS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Alert-Only vulnerability Alert-Only-VP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Alert-Only url-filtering Alert-Only-URL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Alert-Only file-blocking Alert-Only-FB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group Alert-Only wildfire-analysis Alert-Only-WF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group default virus Outbound-AV
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group default spyware Outbound-AS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group default vulnerability Outbound-VP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group default url-filtering Outbound-URL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group default file-blocking Outbound-FB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profile-group default wildfire-analysis Outbound-WF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Security Rules
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules intrazone-default action allow
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules intrazone-default log-start no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules intrazone-default log-end yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules intrazone-default profile-setting group Inbound
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules intrazone-default log-setting default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules interzone-default action drop
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules interzone-default log-start no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules interzone-default log-end yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase default-security-rules rules interzone-default log-setting default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" description "Block outbound sessions with destination address matching one of the Palo Alto Networks external dynamic lists for high risk and known malicious IP addresses."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" to any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" from any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" source any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" destination [ panw-highrisk-ip-list panw-known-ip-list ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" source-user any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" service any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" hip-profiles any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" action deny
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" log-setting default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Block Rule" tag Outbound
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" description "Block inbound sessions with source address matching one of the Palo Alto Networks external dynamic lists for high risk and known malicious IP addresses."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" to any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" from any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" source [ panw-highrisk-ip-list panw-known-ip-list ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" destination any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" source-user any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" service any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" hip-profiles any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" action deny
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" log-setting default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Block Rule" tag Inbound
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" description "Block outbound sessions that match a malicious domain and have been redirected to a configured sinkhole IP address."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" to any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" from any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" source any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" destination [ Sinkhole-IPv4 Sinkhole-IPv6 ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" source-user any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" service any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" hip-profiles any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" action deny
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" log-setting default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "DNS Sinkhole Block" tag Outbound
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" description "Block outbound sessions with a destination address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" to any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" from any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" source any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" destination [ "Team Cymru Bogons IPv4" "Team Cymru Bogons IPv6" ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" source-user any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" service any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" hip-profiles any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" action deny
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" log-setting default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" tag Outbound
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Outbound Bogon Block Rule" disabled yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" description "Block inbound sessions with a source address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" to any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" from any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" source [ "Team Cymru Bogons IPv4" "Team Cymru Bogons IPv6" ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" destination any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" source-user any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" application any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" service any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" hip-profiles any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" action deny
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" log-setting default
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" tag Inbound
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase security rules "Inbound Bogon Block Rule" disabled yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recommended Decryption Profiles
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-expired-certificate yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-untrusted-issuer yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-unknown-cert yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-timeout-cert yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-unsupported-version yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-unsupported-cipher yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-no-proxy block-expired-certificate yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-no-proxy block-untrusted-issuer yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-inbound-proxy block-unsupported-version no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-inbound-proxy block-unsupported-cipher no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssh-proxy block-unsupported-version yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssh-proxy block-unsupported-alg yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings min-version tls1-2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings keyxchg-algo-rsa no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings enc-algo-3des no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings enc-algo-rc4 no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings auth-algo-sha1 no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Recommended Decryption NO DECRYPT rules for SSL checks even if not decrypting
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" category [ financial-services government health-and-medicine Custom-No-Decrypt ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" service any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" type ssl-forward-proxy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" from any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" to any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" source any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" destination any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" source-user any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" profile Recommended_Decryption_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" action no-decrypt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" disabled yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt URL Categories" description "This rule does not do Decryption.  This rule is validating SSL Protocol Communications."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" category any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" service any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" type ssl-forward-proxy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" from any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" to any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" source any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" destination any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" source-user any
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" profile Recommended_Decryption_Profile
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" action no-decrypt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set rulebase decryption rules "NO-Decrypt Rule" description "This rule does not do Decryption.  This rule is validating SSL Protocol Communications."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Zone Protection Profiles - To Be Added to each Configured Zone
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8001 action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8001 interval 2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8001 threshold 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8002 action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8002 interval 10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8002 threshold 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8003 action alert
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8003 interval 2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection scan 8003 threshold 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection discard-ip-spoof yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection discard-malformed-option yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection remove-tcp-timestamp yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection strip-tcp-fast-open-and-data no
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set network profiles zone-protection-profile Recommended_Zone_Protection strip-mptcp-option global
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#General Reports
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" period last-7-calendar-days
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" topn 500
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" topm 50
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" caption "Host-visit malicious sites plus"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" frequency daily
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" query "(category eq command-and-control) or (category eq hacking) or (category eq malware) or (category eq phishing)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" type url sortby repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" type url group-by src
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" type url aggregate-by [ from srcuser category action ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit malicious sites plus" type url values repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" period last-7-calendar-days
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" topn 500
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" topm 50
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" caption "Hosts visit malicious sites"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" frequency daily
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" query "(category eq command-and-control) or (category eq hacking) or (category eq malware) or (category eq phishing)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" type url sortby repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" type url group-by src
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" type url aggregate-by [ from srcuser ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit malicious sites" type url values repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" period last-7-calendar-days
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" topn 500
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" topm 50
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" caption "Hosts visit questionable sites"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" frequency daily
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" query "(category eq dynamic-dns) and (category eq parked) and (category eq questionable) and (category eq unknown)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" type url sortby repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" type url group-by src
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" type url aggregate-by [ from srcuser ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Hosts visit questionable sites" type url values repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" period last-7-calendar-days
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" topn 500
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" topm 50
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" caption "Host-visit quest sites plus"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" frequency daily
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" query "(category eq dynamic-dns) and (category eq parked) and (category eq questionable) and (category eq unknown)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" description "Detail of hosts visiting questionable URLs"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" type url sortby repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" type url group-by src
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" type url aggregate-by [ from srcuser category action ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Host-visit quest sites plus" type url values repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" period last-30-calendar-days
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" topn 500
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" topm 10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" caption "Wildfire malicious verdicts"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" frequency daily
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" query "(app neq smtp) and (category neq benign)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" description "Files uploaded or downloaded that were later found to be malicious. This is a summary. Act on real-time email."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" type wildfire sortby repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" type wildfire aggregate-by [ filedigest container-of-app app category filetype rule ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire malicious verdicts" type wildfire values repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" period last-30-calendar-days
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" topn 500
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" topm 10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" caption "Wildfire verdicts SMTP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" frequency daily
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" query "(app eq smtp) and (category neq benign)"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" description "Links sent from emails found to be malicious. "
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" type wildfire sortby repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Wildfire verdicts SMTP" type wildfire aggregate-by [ filedigest container-of-app app category filetype rule subject sender recipient misc ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" period last-30-calendar-days
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" topn 500
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" topm 50
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" caption "Clients sinkholed"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" query "(rule eq 'DNS Sinkhole Block')"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" frequency daily
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" type traffic sortby repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" type traffic group-by from
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" type traffic aggregate-by [ src srcuser ]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared reports "Clients sinkholed" type traffic values repeatcnt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Report Groups
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" custom-widget 1 custom-report "Clients sinkholed"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" custom-widget 2 custom-report "Wildfire malicious verdicts"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" custom-widget 3 custom-report "Wildfire verdicts SMTP"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" custom-widget 4 custom-report "Hosts visit malicious sites"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" custom-widget 5 custom-report "Host-visit malicious sites plus"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" custom-widget 6 custom-report "Hosts visit questionable sites"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" custom-widget 7 custom-report "Host-visit quest sites plus"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" title-page yes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared report-group "Possible Compromise" variable title value "Possible Compromise"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Scheduling to Email Reports
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared email-scheduler "Possbile Compromise" report-group "Possible Compromise"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set shared email-scheduler "Possbile Compromise" recurring disabled
-</t>
-  </si>
-  <si>
-    <t>set shared email-scheduler "Possbile Compromise" email-profile Sample_Email_Profile</t>
+    <t># set command configuration for panos version 8.0</t>
+  </si>
+  <si>
+    <t># commands are expected to be load in order</t>
+  </si>
+  <si>
+    <t># this template uses jinja format</t>
+  </si>
+  <si>
+    <t># either 'search and replace' or the scripts in the tools dir can be used to create a loadable configuration</t>
+  </si>
+  <si>
+    <t># management interface configuration - may be skipped if already online</t>
+  </si>
+  <si>
+    <t># remove admin/admin default and add user defined super user</t>
+  </si>
+  <si>
+    <t>delete mgt-config users admin</t>
+  </si>
+  <si>
+    <t># device system and settings configuration</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service application-reports yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service threat-prevention-reports yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service threat-prevention-pcap yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service threat-prevention-information yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service passive-dns-monitoring yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service url-reports yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service health-performance-reports yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule statistics-service file-identification-reports yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule threats recurring every-30-mins at 2</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule threats recurring every-30-mins action download-and-install</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule threats recurring threshold 48</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule anti-virus recurring hourly at 4</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule anti-virus recurring hourly action download-and-install</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule wildfire recurring every-min action download-and-install</t>
+  </si>
+  <si>
+    <t>set deviceconfig system snmp-setting access-setting version v3</t>
+  </si>
+  <si>
+    <t>set deviceconfig system login-banner ""You have accessed a protected system. Log off immediately if you are not an authorized user.""</t>
+  </si>
+  <si>
+    <t>set deviceconfig system timezone UTC</t>
+  </si>
+  <si>
+    <t>set deviceconfig system type dhcp-client send-hostname yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig system type dhcp-client send-client-id no</t>
+  </si>
+  <si>
+    <t>set deviceconfig system type dhcp-client accept-dhcp-hostname no</t>
+  </si>
+  <si>
+    <t>set deviceconfig system type dhcp-client accept-dhcp-domain no</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting ctd strip-x-fwd-for yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting ctd x-forwarded-for yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting ctd skip-block-http-range yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting ctd tcp-bypass-exceed-queue no</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting ctd udp-bypass-exceed-queue no</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management enable-log-high-dp-load yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit apk size-limit 30</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit pdf size-limit 1000</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit ms-office size-limit 2000</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit jar size-limit 5</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit flash size-limit 5</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit MacOSX size-limit 1</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit archive size-limit 10</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire file-size-limit linux size-limit 2</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire report-benign-file yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting wildfire report-grayware-file yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting config rematch yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting application notify-user yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting application bypass-exceed-queue no</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting logging log-suppression no</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting tcp urgent-data clear</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting tcp drop-zero-flag yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting tcp bypass-exceed-oo-queue no</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting tcp check-timestamp-option yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting tcp strip-mptcp-option yes</t>
+  </si>
+  <si>
+    <t># Email and Syslog Profile Server Settings</t>
+  </si>
+  <si>
+    <t>set shared log-settings email Sample_Email_Profile server Sample_Email_Profile display-name Threat_Alerts</t>
+  </si>
+  <si>
+    <t>set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog transport UDP</t>
+  </si>
+  <si>
+    <t>set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog port 514</t>
+  </si>
+  <si>
+    <t>set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog format BSD</t>
+  </si>
+  <si>
+    <t>set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog facility LOG_USER</t>
+  </si>
+  <si>
+    <t>#Device Log Settings</t>
+  </si>
+  <si>
+    <t>set shared log-settings system match-list Email_Critical_System_Logs send-email Sample_Email_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings system match-list Email_Critical_System_Logs filter ""(severity eq critical)""</t>
+  </si>
+  <si>
+    <t>set shared log-settings system match-list Email_Critical_System_Logs description ""Email Critical System Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings system match-list System_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings system match-list System_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings system match-list System_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings config match-list Configuration_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings config match-list Configuration_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings config match-list Configuration_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings userid match-list User-ID_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings userid match-list User-ID_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings userid match-list User-ID_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings hipmatch match-list HIP_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings hipmatch match-list HIP_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings hipmatch match-list HIP_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>#Log Forwarding Profile Objects</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Traffic_Log_Forwarding log-type traffic</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Traffic_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Traffic_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Traffic_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Threat_Log_Forwarding log-type threat</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Threat_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Threat_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Threat_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Malicious_Verdicts send-email Sample_Email_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Malicious_Verdicts action-desc ""Email Malicious Wildfire Verdicts""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Malicious_Verdicts log-type wildfire</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Malicious_Verdicts filter ""(verdict eq malicious)""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Malicious_Verdicts send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Phishing_Verdicts send-email Sample_Email_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Phishing_Verdicts action-desc ""Email Phishing Wildfire Verdicts""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Phishing_Verdicts log-type wildfire</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Phishing_Verdicts filter ""(verdict eq phishing)""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Email_Phishing_Verdicts send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Wildfire_Log_Forwarding log-type wildfire</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Wildfire_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Wildfire_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Wildfire_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list URL_Log_Forwarding log-type url</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list URL_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list URL_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list URL_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Data_Log_Forwarding log-type data</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Data_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Data_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Data_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Tunnel_Log_Forwarding log-type tunnel</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Tunnel_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Tunnel_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Tunnel_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Auth_Log_Forwarding log-type auth</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Auth_Log_Forwarding filter ""All Logs""</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Auth_Log_Forwarding send-to-panorama no</t>
+  </si>
+  <si>
+    <t>set shared log-settings profiles default match-list Auth_Log_Forwarding send-syslog Sample_Syslog_Profile</t>
+  </si>
+  <si>
+    <t>#Tags referenced in security rules</t>
+  </si>
+  <si>
+    <t>set tag Outbound comments ""Outbound to the Internet""</t>
+  </si>
+  <si>
+    <t>set tag Inbound comments ""Inbound from the Internet""</t>
+  </si>
+  <si>
+    <t>set tag Internal comments ""Internal to Internal""</t>
+  </si>
+  <si>
+    <t>set tag iron-skillet-version comments ""version 1.0.4: version of this iron-skillet template file""</t>
+  </si>
+  <si>
+    <t>#External Dynamic List values used in security rules</t>
+  </si>
+  <si>
+    <t>set external-list ""Team Cymru Bogons IPv4"" type ip recurring hourly</t>
+  </si>
+  <si>
+    <t>set external-list ""Team Cymru Bogons IPv4"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv4.txt</t>
+  </si>
+  <si>
+    <t>set external-list ""Team Cymru Bogons IPv4"" type ip description ""IPv4 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
+  </si>
+  <si>
+    <t>set external-list ""Team Cymru Bogons IPv6"" type ip recurring hourly</t>
+  </si>
+  <si>
+    <t>set external-list ""Team Cymru Bogons IPv6"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv6.txt</t>
+  </si>
+  <si>
+    <t>set external-list ""Team Cymru Bogons IPv6"" type ip description ""IPv6 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
+  </si>
+  <si>
+    <t>#Address objects used for sinkholing and security rules match</t>
+  </si>
+  <si>
+    <t>#File Blocking Profile</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Alert-All application any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Alert-All file-type any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Alert-All direction both</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Alert-All action alert</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Block application any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Block file-type [ 7z bat chm class cpl dll hlp hta jar ocx pif scr torrent vbe wsf ]</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Block direction both</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Outbound-FB rules Block action block</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Alert-All application any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Alert-All file-type any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Alert-All direction both</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Alert-All action alert</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Block application any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Block file-type [ 7z bat chm class cpl dll hlp hta jar ocx pif scr torrent vbe wsf ]</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Block direction both</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Inbound-FB rules Block action block</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Alert-All application any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Alert-All file-type any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Alert-All direction both</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Alert-All action alert</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Block application any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Block file-type [ 7z bat chm class cpl hlp hta jar ocx pif scr torrent vbe wsf ]</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Block direction both</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Internal-FB rules Block action block</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Alert-Only-FB rules Alert-Only application any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Alert-Only-FB rules Alert-Only file-type any</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Alert-Only-FB rules Alert-Only direction both</t>
+  </si>
+  <si>
+    <t>set profiles file-blocking Alert-Only-FB rules Alert-Only action alert</t>
+  </si>
+  <si>
+    <t>#Anti-Spyware Profile  with Sinkholing</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS botnet-domains packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Block-Critical-High-Medium action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Block-Critical-High-Medium severity [ high critical medium ]</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Block-Critical-High-Medium threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Block-Critical-High-Medium category any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Block-Critical-High-Medium packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Default-Low-Info action default</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Default-Low-Info severity [ low informational ]</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Default-Low-Info threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Default-Low-Info category any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS rules Default-Low-Info packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS botnet-domains packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Block-Critical-High-Medium action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Block-Critical-High-Medium severity [ high critical medium ]</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Block-Critical-High-Medium threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Block-Critical-High-Medium category any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Block-Critical-High-Medium packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Default-Low-Info action default</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Default-Low-Info severity [ low informational ]</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Default-Low-Info threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Default-Low-Info category any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS rules Default-Low-Info packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS botnet-domains packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Block-Critical-High action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Block-Critical-High severity [ high critical ]</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Block-Critical-High threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Block-Critical-High category any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Block-Critical-High packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Default-Medium-Low-Info action default</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Default-Medium-Low-Info severity [ low informational medium ]</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Default-Medium-Low-Info threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Default-Medium-Low-Info category any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS rules Default-Medium-Low-Info packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS botnet-domains lists default-paloalto-dns action alert</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS botnet-domains packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS rules Alert-All action alert</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS rules Alert-All severity any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS rules Alert-All threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS rules Alert-All category any</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS rules Alert-All packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles spyware Exception-AS botnet-domains packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Exception-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
+  </si>
+  <si>
+    <t>#URL Filtering Profile</t>
+  </si>
+  <si>
+    <t>set profiles custom-url-category Black-List</t>
+  </si>
+  <si>
+    <t>set profiles custom-url-category White-List</t>
+  </si>
+  <si>
+    <t>set profiles custom-url-category Custom-No-Decrypt</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL credential-enforcement mode ip-user</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL credential-enforcement log-severity high</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL log-http-hdr-user-agent yes</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL log-http-hdr-referer yes</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL log-http-hdr-xff yes</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL action block</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting White-List ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Outbound-URL block [ command-and-control hacking malware phishing Black-List ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Alert-Only-URL credential-enforcement mode ip-user</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Alert-Only-URL credential-enforcement log-severity medium</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Alert-Only-URL credential-enforcement alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Alert-Only-URL action block</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Alert-Only-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL credential-enforcement mode ip-user</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL credential-enforcement log-severity high</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL log-http-hdr-user-agent yes</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL log-http-hdr-referer yes</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL log-http-hdr-xff yes</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL action block</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting White-List ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Exception-URL block [ command-and-control hacking malware phishing Black-List ]</t>
+  </si>
+  <si>
+    <t>#AntiVirus Profiles</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder ftp action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder ftp wildfire-action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder http action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder http wildfire-action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder imap action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder imap wildfire-action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder pop3 action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder pop3 wildfire-action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder smb action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder smb wildfire-action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder smtp action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder smtp wildfire-action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder ftp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder ftp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder http action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder http wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder imap action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder imap wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder pop3 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder pop3 wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder smb action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder smb wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder smtp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder smtp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder ftp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder ftp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder http action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder http wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder imap action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder imap wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder pop3 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder pop3 wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder smb action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder smb wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder smtp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder smtp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder ftp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder ftp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder http action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder http wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder imap action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder imap wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder pop3 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder pop3 wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder smb action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder smb wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder smtp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder smtp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder ftp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder ftp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder http action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder http wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder imap action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder imap wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder pop3 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder pop3 wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder smb action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder smb wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder smtp action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder smtp wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV description ""Use this profile for rules needing modifications to the standard""</t>
+  </si>
+  <si>
+    <t>#Vulnerability Protection Profile</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium vendor-id any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium severity [ critical high medium ]</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium cve any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium host any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium category any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Block-Critical-High-Medium packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info action default</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info vendor-id any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info severity [ low informational ]</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info cve any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info host any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info category any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP rules Default-Low-Info packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium vendor-id any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium severity [ critical high medium ]</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium cve any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium host any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium category any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info action default</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info vendor-id any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info severity [ low informational ]</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info cve any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info host any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info category any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP rules Default-Low-Info packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High vendor-id any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High severity [ critical high ]</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High cve any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High host any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High category any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Block-Critical-High packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info action default</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info vendor-id any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info severity [ low informational medium ]</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info cve any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info host any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info category any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All vendor-id any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All severity any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All cve any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All threat-name any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All host any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All category any</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Alert-Only-VP rules Alert-All packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Exception-VP</t>
+  </si>
+  <si>
+    <t>#Wildfire Analysis Profiles</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Outbound-WF rules Forward-All application any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Outbound-WF rules Forward-All file-type any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Outbound-WF rules Forward-All direction both</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Outbound-WF rules Forward-All analysis public-cloud</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Inbound-WF rules Forward-All application any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Inbound-WF rules Forward-All file-type any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Inbound-WF rules Forward-All direction both</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Inbound-WF rules Forward-All analysis public-cloud</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Internal-WF rules Forward-All application any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Internal-WF rules Forward-All file-type any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Internal-WF rules Forward-All direction both</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Internal-WF rules Forward-All analysis public-cloud</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Alert-Only-WF rules Forward-All application any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Alert-Only-WF rules Forward-All file-type any</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Alert-Only-WF rules Forward-All direction both</t>
+  </si>
+  <si>
+    <t>set profiles wildfire-analysis Alert-Only-WF rules Forward-All analysis public-cloud</t>
+  </si>
+  <si>
+    <t>#Profile Groups</t>
+  </si>
+  <si>
+    <t>set profile-group Outbound virus Outbound-AV</t>
+  </si>
+  <si>
+    <t>set profile-group Outbound spyware Outbound-AS</t>
+  </si>
+  <si>
+    <t>set profile-group Outbound vulnerability Outbound-VP</t>
+  </si>
+  <si>
+    <t>set profile-group Outbound url-filtering Outbound-URL</t>
+  </si>
+  <si>
+    <t>set profile-group Outbound file-blocking Outbound-FB</t>
+  </si>
+  <si>
+    <t>set profile-group Outbound wildfire-analysis Outbound-WF</t>
+  </si>
+  <si>
+    <t>set profile-group Inbound virus Inbound-AV</t>
+  </si>
+  <si>
+    <t>set profile-group Inbound spyware Inbound-AS</t>
+  </si>
+  <si>
+    <t>set profile-group Inbound vulnerability Inbound-VP</t>
+  </si>
+  <si>
+    <t>set profile-group Inbound file-blocking Inbound-FB</t>
+  </si>
+  <si>
+    <t>set profile-group Inbound wildfire-analysis Inbound-WF</t>
+  </si>
+  <si>
+    <t>set profile-group Internal virus Internal-AV</t>
+  </si>
+  <si>
+    <t>set profile-group Internal spyware Internal-AS</t>
+  </si>
+  <si>
+    <t>set profile-group Internal vulnerability Internal-VP</t>
+  </si>
+  <si>
+    <t>set profile-group Internal file-blocking Internal-FB</t>
+  </si>
+  <si>
+    <t>set profile-group Internal wildfire-analysis Internal-WF</t>
+  </si>
+  <si>
+    <t>set profile-group Alert-Only virus Alert-Only-AV</t>
+  </si>
+  <si>
+    <t>set profile-group Alert-Only spyware Alert-Only-AS</t>
+  </si>
+  <si>
+    <t>set profile-group Alert-Only vulnerability Alert-Only-VP</t>
+  </si>
+  <si>
+    <t>set profile-group Alert-Only url-filtering Alert-Only-URL</t>
+  </si>
+  <si>
+    <t>set profile-group Alert-Only file-blocking Alert-Only-FB</t>
+  </si>
+  <si>
+    <t>set profile-group Alert-Only wildfire-analysis Alert-Only-WF</t>
+  </si>
+  <si>
+    <t>set profile-group default virus Outbound-AV</t>
+  </si>
+  <si>
+    <t>set profile-group default spyware Outbound-AS</t>
+  </si>
+  <si>
+    <t>set profile-group default vulnerability Outbound-VP</t>
+  </si>
+  <si>
+    <t>set profile-group default url-filtering Outbound-URL</t>
+  </si>
+  <si>
+    <t>set profile-group default file-blocking Outbound-FB</t>
+  </si>
+  <si>
+    <t>set profile-group default wildfire-analysis Outbound-WF</t>
+  </si>
+  <si>
+    <t>#Security Rules</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules intrazone-default action allow</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules intrazone-default log-start no</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules intrazone-default log-end yes</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules intrazone-default profile-setting group Inbound</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules intrazone-default log-setting default</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules interzone-default action drop</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules interzone-default log-start no</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules interzone-default log-end yes</t>
+  </si>
+  <si>
+    <t>set rulebase default-security-rules rules interzone-default log-setting default</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" description ""Block outbound sessions with destination address matching one of the Palo Alto Networks external dynamic lists for high risk and known malicious IP addresses.""</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" to any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" from any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" source any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" destination [ panw-highrisk-ip-list panw-known-ip-list ]</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" source-user any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" category any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" application any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" service any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" hip-profiles any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" action deny</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" log-setting default</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Block Rule"" tag Outbound</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" description ""Block inbound sessions with source address matching one of the Palo Alto Networks external dynamic lists for high risk and known malicious IP addresses.""</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" to any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" from any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" source [ panw-highrisk-ip-list panw-known-ip-list ]</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" destination any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" source-user any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" category any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" application any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" service any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" hip-profiles any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" action deny</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" log-setting default</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Block Rule"" tag Inbound</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" description ""Block outbound sessions that match a malicious domain and have been redirected to a configured sinkhole IP address.""</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" to any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" from any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" source any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" destination [ Sinkhole-IPv4 Sinkhole-IPv6 ]</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" source-user any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" category any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" application any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" service any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" hip-profiles any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" action deny</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" log-setting default</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""DNS Sinkhole Block"" tag Outbound</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" description ""Block outbound sessions with a destination address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" to any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" from any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" destination [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source-user any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" category any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" application any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" service any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" hip-profiles any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" action deny</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" log-setting default</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" tag Outbound</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Outbound Bogon Block Rule"" disabled yes</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" description ""Block inbound sessions with a source address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" to any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" from any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" destination any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source-user any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" category any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" application any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" service any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" hip-profiles any</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" action deny</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" log-setting default</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" tag Inbound</t>
+  </si>
+  <si>
+    <t>set rulebase security rules ""Inbound Bogon Block Rule"" disabled yes</t>
+  </si>
+  <si>
+    <t>Recommended Decryption Profiles</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-expired-certificate yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-untrusted-issuer yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-unknown-cert yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-timeout-cert yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-unsupported-version yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-unsupported-cipher yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-no-proxy block-expired-certificate yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-no-proxy block-untrusted-issuer yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-inbound-proxy block-unsupported-version no</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-inbound-proxy block-unsupported-cipher no</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssh-proxy block-unsupported-version yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssh-proxy block-unsupported-alg yes</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings min-version tls1-2</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings keyxchg-algo-rsa no</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings enc-algo-3des no</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings enc-algo-rc4 no</t>
+  </si>
+  <si>
+    <t>set profiles decryption Recommended_Decryption_Profile ssl-protocol-settings auth-algo-sha1 no</t>
+  </si>
+  <si>
+    <t>#Recommended Decryption NO DECRYPT rules for SSL checks even if not decrypting</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" category [ financial-services government health-and-medicine Custom-No-Decrypt ]</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" service any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" type ssl-forward-proxy</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" from any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" to any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" source any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" destination any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" source-user any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" profile Recommended_Decryption_Profile</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" action no-decrypt</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" disabled yes</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt URL Categories"" description ""This rule does not do Decryption.  This rule is validating SSL Protocol Communications.""</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" category any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" service any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" type ssl-forward-proxy</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" from any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" to any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" source any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" destination any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" source-user any</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" profile Recommended_Decryption_Profile</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" action no-decrypt</t>
+  </si>
+  <si>
+    <t>set rulebase decryption rules ""NO-Decrypt Rule"" description ""This rule does not do Decryption.  This rule is validating SSL Protocol Communications.""</t>
+  </si>
+  <si>
+    <t>#Zone Protection Profiles - To Be Added to each Configured Zone</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8001 action alert</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8001 interval 2</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8001 threshold 100</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8002 action alert</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8002 interval 10</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8002 threshold 100</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8003 action alert</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8003 interval 2</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection scan 8003 threshold 100</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection discard-ip-spoof yes</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection discard-malformed-option yes</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection remove-tcp-timestamp yes</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection strip-tcp-fast-open-and-data no</t>
+  </si>
+  <si>
+    <t>set network profiles zone-protection-profile Recommended_Zone_Protection strip-mptcp-option global</t>
+  </si>
+  <si>
+    <t>#General Reports</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" period last-7-calendar-days</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" topn 500</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" topm 50</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" caption ""Host-visit malicious sites plus""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" frequency daily</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" query ""(category eq command-and-control) or (category eq hacking) or (category eq malware) or (category eq phishing)""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" type url sortby repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" type url group-by src</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" type url aggregate-by [ from srcuser category action ]</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit malicious sites plus"" type url values repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" period last-7-calendar-days</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" topn 500</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" topm 50</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" caption ""Hosts visit malicious sites""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" frequency daily</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" query ""(category eq command-and-control) or (category eq hacking) or (category eq malware) or (category eq phishing)""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" type url sortby repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" type url group-by src</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" type url aggregate-by [ from srcuser ]</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit malicious sites"" type url values repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" period last-7-calendar-days</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" topn 500</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" topm 50</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" caption ""Hosts visit questionable sites""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" frequency daily</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" query ""(category eq dynamic-dns) and (category eq parked) and (category eq questionable) and (category eq unknown)""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" type url sortby repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" type url group-by src</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" type url aggregate-by [ from srcuser ]</t>
+  </si>
+  <si>
+    <t>set shared reports ""Hosts visit questionable sites"" type url values repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" period last-7-calendar-days</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" topn 500</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" topm 50</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" caption ""Host-visit quest sites plus""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" frequency daily</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" query ""(category eq dynamic-dns) and (category eq parked) and (category eq questionable) and (category eq unknown)""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" description ""Detail of hosts visiting questionable URLs""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" type url sortby repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" type url group-by src</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" type url aggregate-by [ from srcuser category action ]</t>
+  </si>
+  <si>
+    <t>set shared reports ""Host-visit quest sites plus"" type url values repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" period last-30-calendar-days</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" topn 500</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" topm 10</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" caption ""Wildfire malicious verdicts""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" frequency daily</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" query ""(app neq smtp) and (category neq benign)""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" description ""Files uploaded or downloaded that were later found to be malicious. This is a summary. Act on real-time email.""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" type wildfire sortby repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" type wildfire aggregate-by [ filedigest container-of-app app category filetype rule ]</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire malicious verdicts"" type wildfire values repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" period last-30-calendar-days</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" topn 500</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" topm 10</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" caption ""Wildfire verdicts SMTP""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" frequency daily</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" query ""(app eq smtp) and (category neq benign)""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" description ""Links sent from emails found to be malicious. ""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" type wildfire sortby repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Wildfire verdicts SMTP"" type wildfire aggregate-by [ filedigest container-of-app app category filetype rule subject sender recipient misc ]</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" period last-30-calendar-days</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" topn 500</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" topm 50</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" caption ""Clients sinkholed""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" query ""(rule eq 'DNS Sinkhole Block')""</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" frequency daily</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" type traffic sortby repeatcnt</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" type traffic group-by from</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" type traffic aggregate-by [ src srcuser ]</t>
+  </si>
+  <si>
+    <t>set shared reports ""Clients sinkholed"" type traffic values repeatcnt</t>
+  </si>
+  <si>
+    <t>#Report Groups</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" custom-widget 1 custom-report ""Clients sinkholed""</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" custom-widget 2 custom-report ""Wildfire malicious verdicts""</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" custom-widget 3 custom-report ""Wildfire verdicts SMTP""</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" custom-widget 4 custom-report ""Hosts visit malicious sites""</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" custom-widget 5 custom-report ""Host-visit malicious sites plus""</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" custom-widget 6 custom-report ""Hosts visit questionable sites""</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" custom-widget 7 custom-report ""Host-visit quest sites plus""</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" title-page yes</t>
+  </si>
+  <si>
+    <t>set shared report-group ""Possible Compromise"" variable title value ""Possible Compromise""</t>
+  </si>
+  <si>
+    <t>#Scheduling to Email Reports</t>
+  </si>
+  <si>
+    <t>set shared email-scheduler ""Possible Compromise"" report-group ""Possible Compromise""</t>
+  </si>
+  <si>
+    <t>set shared email-scheduler ""Possible Compromise"" recurring disabled</t>
+  </si>
+  <si>
+    <t>set shared email-scheduler ""Possible Compromise"" email-profile Sample_Email_Profile</t>
   </si>
 </sst>
 </file>
@@ -3439,14 +2820,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3497,14 +2873,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3521,267 +2892,257 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -3804,17 +3165,17 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -3825,372 +3186,347 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:1">
@@ -4205,164 +3541,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
@@ -4379,62 +3705,62 @@
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:1">
@@ -4451,62 +3777,62 @@
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -4523,67 +3849,67 @@
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:1">
@@ -4600,37 +3926,37 @@
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" spans="1:1">
@@ -4647,2132 +3973,2072 @@
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>89</v>
+        <v>435</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
-        <v>89</v>
+        <v>452</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
-        <v>89</v>
+        <v>481</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1">
-      <c r="A520" t="s">
-        <v>89</v>
+        <v>558</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1">
-      <c r="A539" t="s">
-        <v>89</v>
+        <v>576</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1">
-      <c r="A564" t="s">
-        <v>89</v>
+        <v>600</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1">
-      <c r="A580" t="s">
-        <v>89</v>
+        <v>615</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1">
-      <c r="A652" t="s">
-        <v>89</v>
+        <v>686</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1">
-      <c r="A663" t="s">
-        <v>89</v>
+        <v>696</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="720">
   <si>
     <t>Variable Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>PANORAMA_IP</t>
   </si>
   <si>
-    <t>192.168.55.7</t>
+    <t>192.168.55.6</t>
   </si>
   <si>
     <t>Panorama IP</t>
@@ -80,6 +80,15 @@
     <t>IP address for scheduled config exports</t>
   </si>
   <si>
+    <t>TEMPLATE</t>
+  </si>
+  <si>
+    <t>sample_template</t>
+  </si>
+  <si>
+    <t>Template name for Panorama</t>
+  </si>
+  <si>
     <t>STACK</t>
   </si>
   <si>
@@ -368,6 +377,9 @@
     <t>set deviceconfig setting management enable-log-high-dp-load yes</t>
   </si>
   <si>
+    <t>set deviceconfig setting management api key lifetime 525600</t>
+  </si>
+  <si>
     <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
   </si>
   <si>
@@ -395,6 +407,9 @@
     <t>set deviceconfig setting wildfire file-size-limit linux size-limit 2</t>
   </si>
   <si>
+    <t>set deviceconfig setting wildfire file-size-limit script size-limit 2000</t>
+  </si>
+  <si>
     <t>set deviceconfig setting wildfire report-benign-file yes</t>
   </si>
   <si>
@@ -740,12 +755,18 @@
     <t>#Anti-Spyware Profile  with Sinkholing</t>
   </si>
   <si>
-    <t>set profiles spyware Outbound-AS botnet-domains packet-capture single-packet</t>
+    <t>set profiles spyware Outbound-AS botnet-domains lists default-paloalto-dns packet-capture single-packet</t>
   </si>
   <si>
     <t>set profiles spyware Outbound-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
   </si>
   <si>
+    <t>set profiles spyware Outbound-AS botnet-domains lists default-paloalto-cloud packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Outbound-AS botnet-domains lists default-paloalto-cloud action sinkhole</t>
+  </si>
+  <si>
     <t>set profiles spyware Outbound-AS rules Block-Critical-High-Medium action reset-both</t>
   </si>
   <si>
@@ -776,12 +797,18 @@
     <t>set profiles spyware Outbound-AS rules Default-Low-Info packet-capture disable</t>
   </si>
   <si>
-    <t>set profiles spyware Inbound-AS botnet-domains packet-capture single-packet</t>
+    <t>set profiles spyware Inbound-AS botnet-domains lists default-paloalto-dns packet-capture single-packet</t>
   </si>
   <si>
     <t>set profiles spyware Inbound-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
   </si>
   <si>
+    <t>set profiles spyware Inbound-AS botnet-domains lists default-paloalto-cloud packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Inbound-AS botnet-domains lists default-paloalto-cloud action sinkhole</t>
+  </si>
+  <si>
     <t>set profiles spyware Inbound-AS rules Block-Critical-High-Medium action reset-both</t>
   </si>
   <si>
@@ -812,12 +839,18 @@
     <t>set profiles spyware Inbound-AS rules Default-Low-Info packet-capture disable</t>
   </si>
   <si>
-    <t>set profiles spyware Internal-AS botnet-domains packet-capture single-packet</t>
+    <t>set profiles spyware Internal-AS botnet-domains lists default-paloalto-dns packet-capture single-packet</t>
   </si>
   <si>
     <t>set profiles spyware Internal-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
   </si>
   <si>
+    <t>set profiles spyware Internal-AS botnet-domains lists default-paloalto-cloud packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Internal-AS botnet-domains lists default-paloalto-cloud action sinkhole</t>
+  </si>
+  <si>
     <t>set profiles spyware Internal-AS rules Block-Critical-High action reset-both</t>
   </si>
   <si>
@@ -851,7 +884,13 @@
     <t>set profiles spyware Alert-Only-AS botnet-domains lists default-paloalto-dns action alert</t>
   </si>
   <si>
-    <t>set profiles spyware Alert-Only-AS botnet-domains packet-capture disable</t>
+    <t>set profiles spyware Alert-Only-AS botnet-domains lists default-paloalto-dns packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS botnet-domains lists default-paloalto-cloud packet-capture disable</t>
+  </si>
+  <si>
+    <t>set profiles spyware Alert-Only-AS botnet-domains lists default-paloalto-cloud action alert</t>
   </si>
   <si>
     <t>set profiles spyware Alert-Only-AS rules Alert-All action alert</t>
@@ -869,12 +908,18 @@
     <t>set profiles spyware Alert-Only-AS rules Alert-All packet-capture disable</t>
   </si>
   <si>
-    <t>set profiles spyware Exception-AS botnet-domains packet-capture single-packet</t>
+    <t>set profiles spyware Exception-AS botnet-domains lists default-paloalto-dns packet-capture single-packet</t>
   </si>
   <si>
     <t>set profiles spyware Exception-AS botnet-domains lists default-paloalto-dns action sinkhole</t>
   </si>
   <si>
+    <t>set profiles spyware Exception-AS botnet-domains lists default-paloalto-cloud packet-capture single-packet</t>
+  </si>
+  <si>
+    <t>set profiles spyware Exception-AS botnet-domains lists default-paloalto-cloud action sinkhole</t>
+  </si>
+  <si>
     <t>#URL Filtering Profile</t>
   </si>
   <si>
@@ -893,7 +938,7 @@
     <t>set profiles url-filtering Outbound-URL credential-enforcement log-severity high</t>
   </si>
   <si>
-    <t>set profiles url-filtering Outbound-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
+    <t>set profiles url-filtering Outbound-URL credential-enforcement block [ Black-List White-List abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine high-risk home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal low-risk malware medium-risk military motor-vehicles music newly-registered-domain news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Outbound-URL log-http-hdr-user-agent yes</t>
@@ -905,10 +950,7 @@
     <t>set profiles url-filtering Outbound-URL log-http-hdr-xff yes</t>
   </si>
   <si>
-    <t>set profiles url-filtering Outbound-URL action block</t>
-  </si>
-  <si>
-    <t>set profiles url-filtering Outbound-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting White-List ]</t>
+    <t>set profiles url-filtering Outbound-URL alert [ White-List abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine high-risk home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal low-risk medium-risk military motor-vehicles music newly-registered-domain news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Outbound-URL block [ command-and-control hacking malware phishing Black-List ]</t>
@@ -920,13 +962,10 @@
     <t>set profiles url-filtering Alert-Only-URL credential-enforcement log-severity medium</t>
   </si>
   <si>
-    <t>set profiles url-filtering Alert-Only-URL credential-enforcement alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
-  </si>
-  <si>
-    <t>set profiles url-filtering Alert-Only-URL action block</t>
-  </si>
-  <si>
-    <t>set profiles url-filtering Alert-Only-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+    <t>set profiles url-filtering Alert-Only-URL credential-enforcement alert [ Black-List White-List abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine high-risk home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal low-risk malware medium-risk military motor-vehicles music newly-registered-domain news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+  </si>
+  <si>
+    <t>set profiles url-filtering Alert-Only-URL alert [ Black-List White-List abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine high-risk home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal low-risk malware medium-risk military motor-vehicles music newly-registered-domain news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Exception-URL credential-enforcement mode ip-user</t>
@@ -935,7 +974,7 @@
     <t>set profiles url-filtering Exception-URL credential-enforcement log-severity high</t>
   </si>
   <si>
-    <t>set profiles url-filtering Exception-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List ]</t>
+    <t>set profiles url-filtering Exception-URL credential-enforcement block [ Black-List White-List abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine high-risk home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal low-risk malware medium-risk military motor-vehicles music newly-registered-domain news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Exception-URL log-http-hdr-user-agent yes</t>
@@ -947,10 +986,7 @@
     <t>set profiles url-filtering Exception-URL log-http-hdr-xff yes</t>
   </si>
   <si>
-    <t>set profiles url-filtering Exception-URL action block</t>
-  </si>
-  <si>
-    <t>set profiles url-filtering Exception-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting White-List ]</t>
+    <t>set profiles url-filtering Exception-URL alert [ White-List abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government health-and-medicine high-risk home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal low-risk medium-risk military motor-vehicles music newly-registered-domain news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Exception-URL block [ command-and-control hacking malware phishing Black-List ]</t>
@@ -971,6 +1007,12 @@
     <t>set profiles virus Alert-Only-AV decoder http wildfire-action alert</t>
   </si>
   <si>
+    <t>set profiles virus Alert-Only-AV decoder http2 action alert</t>
+  </si>
+  <si>
+    <t>set profiles virus Alert-Only-AV decoder http2 wildfire-action alert</t>
+  </si>
+  <si>
     <t>set profiles virus Alert-Only-AV decoder imap action alert</t>
   </si>
   <si>
@@ -1007,6 +1049,12 @@
     <t>set profiles virus Outbound-AV decoder http wildfire-action reset-both</t>
   </si>
   <si>
+    <t>set profiles virus Outbound-AV decoder http2 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Outbound-AV decoder http2 wildfire-action reset-both</t>
+  </si>
+  <si>
     <t>set profiles virus Outbound-AV decoder imap action reset-both</t>
   </si>
   <si>
@@ -1043,6 +1091,12 @@
     <t>set profiles virus Inbound-AV decoder http wildfire-action reset-both</t>
   </si>
   <si>
+    <t>set profiles virus Inbound-AV decoder http2 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Inbound-AV decoder http2 wildfire-action reset-both</t>
+  </si>
+  <si>
     <t>set profiles virus Inbound-AV decoder imap action reset-both</t>
   </si>
   <si>
@@ -1079,6 +1133,12 @@
     <t>set profiles virus Internal-AV decoder http wildfire-action reset-both</t>
   </si>
   <si>
+    <t>set profiles virus Internal-AV decoder http2 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Internal-AV decoder http2 wildfire-action reset-both</t>
+  </si>
+  <si>
     <t>set profiles virus Internal-AV decoder imap action reset-both</t>
   </si>
   <si>
@@ -1113,6 +1173,12 @@
   </si>
   <si>
     <t>set profiles virus Exception-AV decoder http wildfire-action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder http2 action reset-both</t>
+  </si>
+  <si>
+    <t>set profiles virus Exception-AV decoder http2 wildfire-action reset-both</t>
   </si>
   <si>
     <t>set profiles virus Exception-AV decoder imap action reset-both</t>
@@ -2449,7 +2515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2651,18 +2717,18 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -2760,11 +2826,22 @@
       <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="b">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="b">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>81</v>
+      <c r="C29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2774,7 +2851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A667"/>
+  <dimension ref="A2:A687"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,3243 +2859,3338 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B10)</f>
+        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B12)</f>
+        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B13)</f>
+        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B14)</f>
+        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B19)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B20)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B15)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B16)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B24)</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B25)</f>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B26)</f>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>141</v>
-      </c>
-    </row>
     <row r="79" spans="1:1">
-      <c r="A79">
-        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B27)</f>
-        <v>0</v>
+      <c r="A79" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>143</v>
+      <c r="A82">
+        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154">
-        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+      <c r="A154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
-        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
+      <c r="A188" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>242</v>
+      <c r="A191">
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>243</v>
+      <c r="A192">
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A202" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
+      <c r="A203" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>256</v>
+      <c r="A207">
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>257</v>
+      <c r="A208">
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A216" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
+      <c r="A217" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>270</v>
+      <c r="A223">
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>271</v>
+      <c r="A224">
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A231" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
-        <v>0</v>
+      <c r="A232" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>292</v>
+      <c r="A251">
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>293</v>
+      <c r="A252">
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>449</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1">
-      <c r="A540" t="s">
-        <v>574</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>597</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>612</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1">
-      <c r="A584" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1">
-      <c r="A600" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>683</v>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>693</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>697</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="722">
   <si>
     <t>Variable Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PANORAMA_TYPE</t>
   </si>
   <si>
-    <t>cloud</t>
+    <t>static</t>
   </si>
   <si>
     <t>Panorama management IP type - static or cloud (for dhcp)</t>
@@ -182,6 +182,9 @@
     <t>ADMINISTRATOR_PASSWORD</t>
   </si>
   <si>
+    <t>paloalto</t>
+  </si>
+  <si>
     <t>admin password</t>
   </si>
   <si>
@@ -378,6 +381,9 @@
   </si>
   <si>
     <t>set deviceconfig setting management api key lifetime 525600</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management max-rows-in-csv-export 1048576</t>
   </si>
   <si>
     <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
@@ -2728,120 +2734,120 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A687"/>
+  <dimension ref="A2:A688"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2859,27 +2865,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2932,7 +2938,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2949,1086 +2955,1086 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="78" spans="1:1">
+      <c r="A78">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="79" spans="1:1">
+      <c r="A79">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
         <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>148</v>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="157" spans="1:1">
-      <c r="A157">
+      <c r="A157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
         <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158">
+    <row r="159" spans="1:1">
+      <c r="A159">
         <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>216</v>
-      </c>
-    </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
         <v>245</v>
       </c>
     </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="191" spans="1:1">
-      <c r="A191">
+      <c r="A191" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192">
+    <row r="193" spans="1:1">
+      <c r="A193">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>246</v>
-      </c>
-    </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207">
+      <c r="A207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208">
+    <row r="209" spans="1:1">
+      <c r="A209">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223">
+      <c r="A223" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224">
+    <row r="225" spans="1:1">
+      <c r="A225">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240">
+      <c r="A240" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241">
+    <row r="242" spans="1:1">
+      <c r="A242">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>289</v>
-      </c>
-    </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="244" spans="1:1">
@@ -4038,2159 +4044,2164 @@
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251">
+      <c r="A251" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252">
+    <row r="253" spans="1:1">
+      <c r="A253">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>297</v>
-      </c>
-    </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
         <v>501</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1">
-      <c r="A560" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1">
-      <c r="A585" t="s">
         <v>620</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1">
-      <c r="A673" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1">
-      <c r="A684" t="s">
         <v>716</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>719</v>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="723">
   <si>
     <t>Variable Name</t>
   </si>
@@ -269,6 +269,12 @@
     <t>syslog server ip address</t>
   </si>
   <si>
+    <t>API_KEY_LIFETIME</t>
+  </si>
+  <si>
+    <t>lifetime for the api key in minutes</t>
+  </si>
+  <si>
     <t>INCLUDE_PAN_EDL</t>
   </si>
   <si>
@@ -378,9 +384,6 @@
   </si>
   <si>
     <t>set deviceconfig setting management enable-log-high-dp-load yes</t>
-  </si>
-  <si>
-    <t>set deviceconfig setting management api key lifetime 525600</t>
   </si>
   <si>
     <t>set deviceconfig setting management max-rows-in-csv-export 1048576</t>
@@ -2521,7 +2524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2843,11 +2846,22 @@
       <c r="A29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="b">
-        <v>1</v>
+      <c r="B29">
+        <v>525600</v>
       </c>
       <c r="C29" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2865,27 +2879,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2938,7 +2952,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2955,272 +2969,273 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>121</v>
+      <c r="A50">
+        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B29)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -3243,17 +3258,17 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -3264,347 +3279,347 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:1">
@@ -3621,152 +3636,152 @@
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:1">
@@ -3783,72 +3798,72 @@
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:1">
@@ -3865,72 +3880,72 @@
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" spans="1:1">
@@ -3947,77 +3962,77 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -4034,47 +4049,47 @@
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -4091,2117 +4106,2117 @@
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -647,7 +647,7 @@
     <t>set tag Internal comments ""Internal to Internal""</t>
   </si>
   <si>
-    <t>set tag iron-skillet-version comments ""version 1.0.4: version of this iron-skillet template file""</t>
+    <t>set tag iron-skillet-version comments ""version 0.0.1 for 9.0: version of this IronSkillet template file""</t>
   </si>
   <si>
     <t>#External Dynamic List values used in security rules</t>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="702">
   <si>
     <t>Variable Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>PANORAMA_IP</t>
   </si>
   <si>
-    <t>192.168.55.7</t>
+    <t>192.168.55.8</t>
   </si>
   <si>
     <t>Panorama IP</t>
@@ -80,6 +80,15 @@
     <t>IP address for scheduled config exports</t>
   </si>
   <si>
+    <t>TEMPLATE</t>
+  </si>
+  <si>
+    <t>sample_template</t>
+  </si>
+  <si>
+    <t>Template name for Panorama</t>
+  </si>
+  <si>
     <t>STACK</t>
   </si>
   <si>
@@ -366,6 +375,9 @@
   </si>
   <si>
     <t>set deviceconfig setting management enable-log-high-dp-load yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management max-rows-in-csv-export 1048576</t>
   </si>
   <si>
     <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
@@ -2449,7 +2461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2651,18 +2663,18 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -2760,11 +2772,22 @@
       <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="b">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="b">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>81</v>
+      <c r="C29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2774,7 +2797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A667"/>
+  <dimension ref="A2:A668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,3243 +2805,3248 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B10)</f>
+        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B12)</f>
+        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B13)</f>
+        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B14)</f>
+        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B19)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B20)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B15)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B16)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B24)</f>
-        <v>0</v>
+      <c r="A73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B26)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>139</v>
+      <c r="A76">
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79">
-        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B27)</f>
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>143</v>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154">
-        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A154" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>211</v>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A188" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>241</v>
+      <c r="A190">
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A202" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>253</v>
+      <c r="A204">
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A216" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>265</v>
+      <c r="A218">
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A231" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>278</v>
+      <c r="A233">
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B21)</f>
-        <v>0</v>
+      <c r="A240" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>284</v>
+      <c r="A242">
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
-        <v>375</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>433</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
-        <v>450</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1">
-      <c r="A521" t="s">
-        <v>556</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1">
-      <c r="A540" t="s">
-        <v>574</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581" t="s">
-        <v>613</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1">
-      <c r="A653" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1">
-      <c r="A664" t="s">
-        <v>694</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>697</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="702">
   <si>
     <t>Variable Name</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>set deviceconfig setting management enable-log-high-dp-load yes</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management max-rows-in-csv-export 1048576</t>
   </si>
   <si>
     <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
@@ -2794,7 +2797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A667"/>
+  <dimension ref="A2:A668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3135,8 +3138,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3146,26 +3149,26 @@
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="75" spans="1:1">
+      <c r="A75">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="76" spans="1:1">
+      <c r="A76">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -3179,18 +3182,18 @@
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
         <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3269,8 +3272,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3464,8 +3467,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3489,8 +3492,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3524,26 +3527,26 @@
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154">
+      <c r="A154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
         <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
+    <row r="156" spans="1:1">
+      <c r="A156">
         <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:1">
@@ -3686,26 +3689,26 @@
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188">
+      <c r="A188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189">
+    <row r="190" spans="1:1">
+      <c r="A190">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -3764,20 +3767,20 @@
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202">
+      <c r="A202" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203">
+    <row r="204" spans="1:1">
+      <c r="A204">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -3836,20 +3839,20 @@
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216">
+      <c r="A216" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217">
+    <row r="218" spans="1:1">
+      <c r="A218">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -3913,30 +3916,30 @@
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231">
+      <c r="A231" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232">
+    <row r="233" spans="1:1">
+      <c r="A233">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>281</v>
-      </c>
-    </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:1">
@@ -3960,20 +3963,20 @@
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240">
+      <c r="A240" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241">
+    <row r="242" spans="1:1">
+      <c r="A242">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:1">
@@ -3981,8 +3984,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4116,8 +4119,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4426,8 +4429,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4716,8 +4719,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4801,8 +4804,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4946,8 +4949,8 @@
         <v>481</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5331,8 +5334,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
-      <c r="A521" t="s">
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
         <v>559</v>
       </c>
     </row>
@@ -5421,8 +5424,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
-      <c r="A540" t="s">
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5541,8 +5544,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="565" spans="1:1">
-      <c r="A565" t="s">
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
         <v>601</v>
       </c>
     </row>
@@ -5616,8 +5619,8 @@
         <v>615</v>
       </c>
     </row>
-    <row r="581" spans="1:1">
-      <c r="A581" t="s">
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
         <v>616</v>
       </c>
     </row>
@@ -5971,8 +5974,8 @@
         <v>686</v>
       </c>
     </row>
-    <row r="653" spans="1:1">
-      <c r="A653" t="s">
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
         <v>687</v>
       </c>
     </row>
@@ -6021,8 +6024,8 @@
         <v>696</v>
       </c>
     </row>
-    <row r="664" spans="1:1">
-      <c r="A664" t="s">
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
         <v>697</v>
       </c>
     </row>
@@ -6039,6 +6042,11 @@
     <row r="667" spans="1:1">
       <c r="A667" t="s">
         <v>700</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="701">
   <si>
     <t>Variable Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PANORAMA_TYPE</t>
   </si>
   <si>
-    <t>cloud</t>
+    <t>static</t>
   </si>
   <si>
     <t>Panorama management IP type - static or cloud (for dhcp)</t>
@@ -119,9 +119,6 @@
     <t>MGMT_TYPE</t>
   </si>
   <si>
-    <t>dhcp-client</t>
-  </si>
-  <si>
     <t>firewall management IP type (static or dhcp-client)</t>
   </si>
   <si>
@@ -635,7 +632,7 @@
     <t>set tag Internal comments ""Internal to Internal""</t>
   </si>
   <si>
-    <t>set tag iron-skillet-version comments ""version 1.0.4: version of this iron-skillet template file""</t>
+    <t>set tag iron-skillet-version comments ""version 1.0.5: version of this iron-skillet template file""</t>
   </si>
   <si>
     <t>#External Dynamic List values used in security rules</t>
@@ -2597,197 +2594,197 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2805,27 +2802,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2878,7 +2875,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2895,262 +2892,262 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -3173,17 +3170,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -3194,347 +3191,347 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -3551,152 +3548,152 @@
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="189" spans="1:1">
@@ -3713,62 +3710,62 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:1">
@@ -3785,62 +3782,62 @@
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="217" spans="1:1">
@@ -3857,67 +3854,67 @@
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:1">
@@ -3934,37 +3931,37 @@
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -3981,2072 +3978,2072 @@
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -632,7 +632,7 @@
     <t>set tag Internal comments ""Internal to Internal""</t>
   </si>
   <si>
-    <t>set tag iron-skillet-version comments ""version 1.0.4: version of this iron-skillet template file""</t>
+    <t>set tag iron-skillet-version comments ""version 1.0.5: version of this iron-skillet template file""</t>
   </si>
   <si>
     <t>#External Dynamic List values used in security rules</t>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1114">
   <si>
     <t>Variable Name</t>
   </si>
@@ -278,10 +278,10 @@
     <t>include the predefined Palo Alto Networks external lists security rules</t>
   </si>
   <si>
-    <t># set command configuration for panos version 8.1</t>
-  </si>
-  <si>
-    <t># commands are expected to be load in order</t>
+    <t># set command configuration for panos version 9.0</t>
+  </si>
+  <si>
+    <t># commands are expected to be loaded in order</t>
   </si>
   <si>
     <t># this template uses jinja format</t>
@@ -296,6 +296,39 @@
     <t># remove admin/admin default and add user defined super user</t>
   </si>
   <si>
+    <t>set mgt-config password-complexity enabled yes</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-length 12</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-uppercase-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-lowercase-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-numeric-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-special-characters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity block-username-inclusion yes</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity password-history-count 24</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity new-password-differs-by-characters 3</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity password-change expiration-period 90</t>
+  </si>
+  <si>
+    <t># best-practice to remove user=admin</t>
+  </si>
+  <si>
     <t>delete mgt-config users admin</t>
   </si>
   <si>
@@ -344,6 +377,18 @@
     <t>set deviceconfig system update-schedule wildfire recurring every-min action download-and-install</t>
   </si>
   <si>
+    <t>set deviceconfig system update-schedule global-protect-datafile recurring hourly at 40</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-datafile recurring hourly action download-and-install</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-clientless-vpn recurring hourly at 50</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-clientless-vpn recurring hourly action download-and-install</t>
+  </si>
+  <si>
     <t>set deviceconfig system snmp-setting access-setting version v3</t>
   </si>
   <si>
@@ -386,6 +431,18 @@
     <t>set deviceconfig setting management max-rows-in-csv-export 1048576</t>
   </si>
   <si>
+    <t>set deviceconfig setting management admin-lockout failed-attempts 5</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management admin-lockout lockout-time 30</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management idle-timeout 10</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management auto-acquire-commit-lock yes</t>
+  </si>
+  <si>
     <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
   </si>
   <si>
@@ -644,28 +701,7 @@
     <t>set tag Internal comments ""Internal to Internal""</t>
   </si>
   <si>
-    <t>set tag iron-skillet-version comments ""version 0.0.1 for 9.0: version of this IronSkillet template file""</t>
-  </si>
-  <si>
-    <t>#External Dynamic List values used in security rules</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip recurring hourly</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv4.txt</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip description ""IPv4 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip recurring hourly</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv6.txt</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip description ""IPv6 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
+    <t>set tag iron-skillet-version comments ""version 0.0.2 for 9.0: version of this IronSkillet template file""</t>
   </si>
   <si>
     <t>#Address objects used for sinkholing and security rules match</t>
@@ -1265,6 +1301,414 @@
     <t>set profiles vulnerability Outbound-VP rules Default-Low-Info packet-capture disable</t>
   </si>
   <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40001 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40001 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40001 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40001 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40003 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40003 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40003 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40003 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40004 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40004 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40004 time-attribute threshold 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40004 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40005 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40005 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40005 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40005 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40006 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40006 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40006 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40006 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40007 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40007 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40007 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40007 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40008 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40008 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40008 time-attribute threshold 25</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40008 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40009 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40009 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40009 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40009 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40010 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40010 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40010 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40010 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40011 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40011 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40011 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40011 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40012 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40012 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40012 time-attribute threshold 7</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40012 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40013 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40013 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40013 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40013 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40014 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40014 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40014 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40014 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40015 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40015 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40015 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40015 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40016 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40016 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40016 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40016 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40017 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40017 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40017 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40017 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40018 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40018 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40018 time-attribute threshold 40</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40018 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40019 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40019 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40019 time-attribute threshold 12</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40019 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40020 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40020 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40020 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40020 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40021 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40021 time-attribute interval 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40021 time-attribute threshold 8</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40021 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40022 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40022 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40022 time-attribute threshold 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40022 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40023 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40023 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40023 time-attribute threshold 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40023 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40028 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40028 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40028 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40028 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40030 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40030 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40030 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40030 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40031 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40031 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40031 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40031 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40032 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40032 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40032 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40032 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40033 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40033 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40033 time-attribute threshold 250</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40033 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40034 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40034 time-attribute interval 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40034 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40034 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40036 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40036 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40036 time-attribute threshold 7</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40036 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40037 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40037 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40037 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40037 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40040 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40040 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40040 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40040 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40044 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40044 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40044 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40044 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40059 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40059 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40059 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40059 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40078 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40078 time-attribute interval 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40078 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Outbound-VP threat-exception 40078 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
     <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium action reset-both</t>
   </si>
   <si>
@@ -1313,6 +1757,414 @@
     <t>set profiles vulnerability Inbound-VP rules Default-Low-Info packet-capture disable</t>
   </si>
   <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40001 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40001 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40001 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40001 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40003 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40003 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40003 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40003 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40004 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40004 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40004 time-attribute threshold 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40004 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40005 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40005 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40005 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40005 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40006 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40006 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40006 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40006 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40007 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40007 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40007 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40007 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40008 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40008 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40008 time-attribute threshold 25</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40008 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40009 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40009 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40009 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40009 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40010 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40010 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40010 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40010 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40011 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40011 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40011 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40011 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40012 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40012 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40012 time-attribute threshold 7</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40012 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40013 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40013 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40013 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40013 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40014 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40014 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40014 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40014 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40015 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40015 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40015 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40015 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40016 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40016 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40016 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40016 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40017 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40017 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40017 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40017 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40018 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40018 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40018 time-attribute threshold 40</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40018 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40019 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40019 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40019 time-attribute threshold 12</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40019 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40020 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40020 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40020 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40020 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40021 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40021 time-attribute interval 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40021 time-attribute threshold 8</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40021 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40022 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40022 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40022 time-attribute threshold 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40022 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40023 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40023 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40023 time-attribute threshold 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40023 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40028 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40028 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40028 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40028 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40030 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40030 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40030 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40030 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40031 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40031 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40031 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40031 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40032 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40032 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40032 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40032 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40033 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40033 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40033 time-attribute threshold 250</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40033 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40034 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40034 time-attribute interval 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40034 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40034 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40036 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40036 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40036 time-attribute threshold 7</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40036 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40037 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40037 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40037 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40037 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40040 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40040 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40040 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40040 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40044 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40044 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40044 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40044 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40059 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40059 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40059 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40059 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40078 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40078 time-attribute interval 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40078 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Inbound-VP threat-exception 40078 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
     <t>set profiles vulnerability Internal-VP rules Block-Critical-High action reset-both</t>
   </si>
   <si>
@@ -1361,6 +2213,414 @@
     <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info packet-capture disable</t>
   </si>
   <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40001 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40001 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40001 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40001 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40003 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40003 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40003 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40003 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40004 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40004 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40004 time-attribute threshold 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40004 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40005 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40005 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40005 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40005 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40006 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40006 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40006 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40006 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40007 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40007 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40007 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40007 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40008 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40008 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40008 time-attribute threshold 25</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40008 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40009 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40009 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40009 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40009 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40010 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40010 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40010 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40010 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40011 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40011 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40011 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40011 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40012 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40012 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40012 time-attribute threshold 7</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40012 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40013 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40013 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40013 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40013 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40014 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40014 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40014 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40014 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40015 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40015 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40015 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40015 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40016 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40016 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40016 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40016 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40017 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40017 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40017 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40017 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40018 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40018 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40018 time-attribute threshold 40</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40018 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40019 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40019 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40019 time-attribute threshold 12</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40019 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40020 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40020 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40020 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40020 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40021 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40021 time-attribute interval 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40021 time-attribute threshold 8</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40021 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40022 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40022 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40022 time-attribute threshold 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40022 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40023 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40023 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40023 time-attribute threshold 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40023 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40028 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40028 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40028 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40028 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40030 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40030 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40030 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40030 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40031 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40031 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40031 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40031 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40032 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40032 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40032 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40032 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40033 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40033 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40033 time-attribute threshold 250</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40033 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40034 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40034 time-attribute interval 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40034 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40034 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40036 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40036 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40036 time-attribute threshold 7</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40036 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40037 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40037 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40037 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40037 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40040 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40040 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40040 time-attribute threshold 20</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40040 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40044 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40044 time-attribute interval 60</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40044 time-attribute threshold 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40044 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40059 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40059 time-attribute interval 30</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40059 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40059 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40078 action alert</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40078 time-attribute interval 10</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40078 time-attribute threshold 100</t>
+  </si>
+  <si>
+    <t>set profiles vulnerability Internal-VP threat-exception 40078 time-attribute track-by source-and-destination</t>
+  </si>
+  <si>
     <t>set profiles vulnerability Alert-Only-VP rules Alert-All action alert</t>
   </si>
   <si>
@@ -1568,7 +2828,7 @@
     <t>set rulebase security rules ""Outbound Block Rule"" source any</t>
   </si>
   <si>
-    <t>set rulebase security rules ""Outbound Block Rule"" destination [ panw-highrisk-ip-list panw-known-ip-list ]</t>
+    <t>set rulebase security rules ""Outbound Block Rule"" destination [ panw-highrisk-ip-list panw-known-ip-list panw-bulletproof-ip-list ]</t>
   </si>
   <si>
     <t>set rulebase security rules ""Outbound Block Rule"" source-user any</t>
@@ -1604,7 +2864,7 @@
     <t>set rulebase security rules ""Inbound Block Rule"" from any</t>
   </si>
   <si>
-    <t>set rulebase security rules ""Inbound Block Rule"" source [ panw-highrisk-ip-list panw-known-ip-list ]</t>
+    <t>set rulebase security rules ""Inbound Block Rule"" source [ panw-highrisk-ip-list panw-known-ip-list panw-bulletproof-ip-list ]</t>
   </si>
   <si>
     <t>set rulebase security rules ""Inbound Block Rule"" destination any</t>
@@ -1671,90 +2931,6 @@
   </si>
   <si>
     <t>set rulebase security rules ""DNS Sinkhole Block"" tag Outbound</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" description ""Block outbound sessions with a destination address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" to any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" from any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" destination [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source-user any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" category any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" application any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" service any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" hip-profiles any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" action deny</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" log-setting default</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" tag Outbound</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" disabled yes</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" description ""Block inbound sessions with a source address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" to any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" from any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" destination any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source-user any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" category any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" application any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" service any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" hip-profiles any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" action deny</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" log-setting default</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" tag Inbound</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" disabled yes</t>
   </si>
   <si>
     <t>Recommended Decryption Profiles</t>
@@ -2868,7 +4044,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A688"/>
+  <dimension ref="A2:A1080"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2969,48 +4145,48 @@
         <v>93</v>
       </c>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3024,95 +4200,89 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B29)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -3191,186 +4361,192 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>137</v>
+      <c r="A66">
+        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B29)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="98" spans="1:1">
+      <c r="A98">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="99" spans="1:1">
+      <c r="A99">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
         <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3454,103 +4630,103 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3579,116 +4755,116 @@
         <v>209</v>
       </c>
     </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158">
+      <c r="A158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
         <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159">
+    <row r="171" spans="1:1">
+      <c r="A171">
         <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1">
@@ -3776,81 +4952,81 @@
         <v>246</v>
       </c>
     </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192">
+      <c r="A192" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193">
+    <row r="205" spans="1:1">
+      <c r="A205">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -3864,75 +5040,75 @@
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208">
+      <c r="A208" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209">
+    <row r="221" spans="1:1">
+      <c r="A221">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:1">
@@ -3946,75 +5122,75 @@
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224">
+      <c r="A224" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225">
+    <row r="237" spans="1:1">
+      <c r="A237">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="238" spans="1:1">
@@ -4033,151 +5209,151 @@
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241">
+      <c r="A241" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242">
+    <row r="254" spans="1:1">
+      <c r="A254">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252">
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253">
+    <row r="265" spans="1:1">
+      <c r="A265">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>309</v>
-      </c>
-    </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4241,63 +5417,63 @@
         <v>326</v>
       </c>
     </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>327</v>
+      </c>
+    </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4601,63 +5777,63 @@
         <v>398</v>
       </c>
     </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>399</v>
+      </c>
+    </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4891,1329 +6067,3289 @@
         <v>456</v>
       </c>
     </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>457</v>
+      </c>
+    </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>502</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>579</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>597</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>621</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>636</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>707</v>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>717</v>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>721</v>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1">
+      <c r="A1022" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1">
+      <c r="A1035" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1">
+      <c r="A1040" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1">
+      <c r="A1042" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1">
+      <c r="A1045" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1">
+      <c r="A1046" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1">
+      <c r="A1047" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1">
+      <c r="A1050" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1">
+      <c r="A1052" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1">
+      <c r="A1054" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1">
+      <c r="A1055" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1">
+      <c r="A1056" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1">
+      <c r="A1057" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1">
+      <c r="A1060" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1">
+      <c r="A1062" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1">
+      <c r="A1064" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1">
+      <c r="A1066" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1">
+      <c r="A1067" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1">
+      <c r="A1068" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1">
+      <c r="A1069" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1">
+      <c r="A1070" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1">
+      <c r="A1072" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1">
+      <c r="A1073" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1">
+      <c r="A1074" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1">
+      <c r="A1075" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1">
+      <c r="A1077" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1">
+      <c r="A1078" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1">
+      <c r="A1079" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1">
+      <c r="A1080" t="s">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1115">
   <si>
     <t>Variable Name</t>
   </si>
@@ -296,6 +296,15 @@
     <t># remove admin/admin default and add user defined super user</t>
   </si>
   <si>
+    <t># best-practice to remove user=admin</t>
+  </si>
+  <si>
+    <t>delete mgt-config users admin</t>
+  </si>
+  <si>
+    <t># set password complexity - will not impact existing users</t>
+  </si>
+  <si>
     <t>set mgt-config password-complexity enabled yes</t>
   </si>
   <si>
@@ -326,12 +335,6 @@
     <t>set mgt-config password-complexity password-change expiration-period 90</t>
   </si>
   <si>
-    <t># best-practice to remove user=admin</t>
-  </si>
-  <si>
-    <t>delete mgt-config users admin</t>
-  </si>
-  <si>
     <t># device system and settings configuration</t>
   </si>
   <si>
@@ -965,13 +968,13 @@
     <t>#URL Filtering Profile</t>
   </si>
   <si>
-    <t>set profiles custom-url-category Black-List</t>
-  </si>
-  <si>
-    <t>set profiles custom-url-category White-List</t>
-  </si>
-  <si>
-    <t>set profiles custom-url-category Custom-No-Decrypt</t>
+    <t>set profiles custom-url-category Black-List type ""URL List""</t>
+  </si>
+  <si>
+    <t>set profiles custom-url-category White-List type ""URL List""</t>
+  </si>
+  <si>
+    <t>set profiles custom-url-category Custom-No-Decrypt type ""URL List""</t>
   </si>
   <si>
     <t>set profiles url-filtering Outbound-URL credential-enforcement mode ip-user</t>
@@ -2933,7 +2936,7 @@
     <t>set rulebase security rules ""DNS Sinkhole Block"" tag Outbound</t>
   </si>
   <si>
-    <t>Recommended Decryption Profiles</t>
+    <t>#Recommended Decryption Profiles</t>
   </si>
   <si>
     <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-expired-certificate yes</t>
@@ -4044,7 +4047,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A1080"/>
+  <dimension ref="A2:A1082"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4140,63 +4143,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4205,165 +4208,159 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B29)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -4372,177 +4369,177 @@
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>138</v>
+      <c r="A68">
+        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B29)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
+    <row r="100" spans="1:1">
+      <c r="A100">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
+    <row r="101" spans="1:1">
+      <c r="A101">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
-        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -4550,83 +4547,89 @@
         <v>168</v>
       </c>
     </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4635,193 +4638,193 @@
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>186</v>
-      </c>
-    </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4830,23 +4833,23 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>225</v>
-      </c>
-    </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4855,160 +4858,160 @@
         <v>229</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170">
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
         <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171">
+    <row r="173" spans="1:1">
+      <c r="A173">
         <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5017,277 +5020,272 @@
         <v>259</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204">
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205">
+    <row r="207" spans="1:1">
+      <c r="A207">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>261</v>
-      </c>
-    </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220">
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221">
+    <row r="223" spans="1:1">
+      <c r="A223">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>275</v>
-      </c>
-    </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236">
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237">
+    <row r="239" spans="1:1">
+      <c r="A239">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>289</v>
-      </c>
-    </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253">
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254">
+    <row r="256" spans="1:1">
+      <c r="A256">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:1">
@@ -5297,63 +5295,68 @@
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264">
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265">
+    <row r="267" spans="1:1">
+      <c r="A267">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>312</v>
-      </c>
-    </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5362,118 +5365,118 @@
         <v>315</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>316</v>
-      </c>
-    </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5482,358 +5485,358 @@
         <v>339</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>340</v>
-      </c>
-    </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5842,2328 +5845,2328 @@
         <v>411</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>412</v>
-      </c>
-    </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" t="s">
         <v>876</v>
       </c>
     </row>
@@ -8172,83 +8175,83 @@
         <v>877</v>
       </c>
     </row>
-    <row r="837" spans="1:1">
-      <c r="A837" t="s">
-        <v>878</v>
-      </c>
-    </row>
     <row r="838" spans="1:1">
       <c r="A838" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" t="s">
         <v>893</v>
       </c>
     </row>
@@ -8257,143 +8260,143 @@
         <v>894</v>
       </c>
     </row>
-    <row r="855" spans="1:1">
-      <c r="A855" t="s">
-        <v>895</v>
-      </c>
-    </row>
     <row r="856" spans="1:1">
       <c r="A856" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" t="s">
         <v>922</v>
       </c>
     </row>
@@ -8402,243 +8405,243 @@
         <v>923</v>
       </c>
     </row>
-    <row r="885" spans="1:1">
-      <c r="A885" t="s">
-        <v>924</v>
-      </c>
-    </row>
     <row r="886" spans="1:1">
       <c r="A886" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" t="s">
         <v>971</v>
       </c>
     </row>
@@ -8647,88 +8650,88 @@
         <v>972</v>
       </c>
     </row>
-    <row r="935" spans="1:1">
-      <c r="A935" t="s">
-        <v>973</v>
-      </c>
-    </row>
     <row r="936" spans="1:1">
       <c r="A936" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952" t="s">
         <v>989</v>
       </c>
     </row>
@@ -8737,118 +8740,118 @@
         <v>990</v>
       </c>
     </row>
-    <row r="954" spans="1:1">
-      <c r="A954" t="s">
-        <v>991</v>
-      </c>
-    </row>
     <row r="955" spans="1:1">
       <c r="A955" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -8857,73 +8860,73 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="979" spans="1:1">
-      <c r="A979" t="s">
-        <v>1015</v>
-      </c>
-    </row>
     <row r="980" spans="1:1">
       <c r="A980" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -8932,353 +8935,353 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="995" spans="1:1">
-      <c r="A995" t="s">
-        <v>1030</v>
-      </c>
-    </row>
     <row r="996" spans="1:1">
       <c r="A996" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1">
+      <c r="A1065" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -9287,48 +9290,48 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="1067" spans="1:1">
-      <c r="A1067" t="s">
-        <v>1101</v>
-      </c>
-    </row>
     <row r="1068" spans="1:1">
       <c r="A1068" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1">
+      <c r="A1076" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -9337,19 +9340,24 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="1078" spans="1:1">
-      <c r="A1078" t="s">
-        <v>1111</v>
-      </c>
-    </row>
     <row r="1079" spans="1:1">
       <c r="A1079" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1">
+      <c r="A1081" t="s">
         <v>1113</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1">
+      <c r="A1082" t="s">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="707">
   <si>
     <t>Variable Name</t>
   </si>
@@ -1304,414 +1304,6 @@
     <t>set profiles vulnerability Outbound-VP rules Default-Low-Info packet-capture disable</t>
   </si>
   <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40001 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40001 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40001 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40001 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40003 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40003 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40003 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40003 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40004 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40004 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40004 time-attribute threshold 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40004 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40005 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40005 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40005 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40005 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40006 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40006 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40006 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40006 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40007 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40007 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40007 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40007 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40008 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40008 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40008 time-attribute threshold 25</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40008 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40009 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40009 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40009 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40009 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40010 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40010 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40010 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40010 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40011 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40011 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40011 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40011 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40012 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40012 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40012 time-attribute threshold 7</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40012 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40013 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40013 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40013 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40013 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40014 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40014 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40014 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40014 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40015 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40015 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40015 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40015 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40016 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40016 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40016 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40016 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40017 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40017 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40017 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40017 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40018 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40018 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40018 time-attribute threshold 40</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40018 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40019 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40019 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40019 time-attribute threshold 12</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40019 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40020 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40020 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40020 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40020 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40021 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40021 time-attribute interval 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40021 time-attribute threshold 8</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40021 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40022 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40022 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40022 time-attribute threshold 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40022 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40023 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40023 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40023 time-attribute threshold 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40023 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40028 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40028 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40028 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40028 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40030 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40030 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40030 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40030 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40031 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40031 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40031 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40031 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40032 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40032 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40032 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40032 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40033 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40033 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40033 time-attribute threshold 250</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40033 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40034 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40034 time-attribute interval 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40034 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40034 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40036 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40036 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40036 time-attribute threshold 7</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40036 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40037 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40037 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40037 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40037 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40040 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40040 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40040 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40040 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40044 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40044 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40044 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40044 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40059 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40059 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40059 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40059 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40078 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40078 time-attribute interval 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40078 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Outbound-VP threat-exception 40078 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
     <t>set profiles vulnerability Inbound-VP rules Block-Critical-High-Medium action reset-both</t>
   </si>
   <si>
@@ -1760,414 +1352,6 @@
     <t>set profiles vulnerability Inbound-VP rules Default-Low-Info packet-capture disable</t>
   </si>
   <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40001 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40001 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40001 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40001 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40003 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40003 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40003 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40003 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40004 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40004 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40004 time-attribute threshold 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40004 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40005 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40005 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40005 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40005 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40006 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40006 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40006 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40006 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40007 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40007 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40007 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40007 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40008 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40008 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40008 time-attribute threshold 25</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40008 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40009 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40009 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40009 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40009 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40010 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40010 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40010 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40010 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40011 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40011 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40011 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40011 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40012 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40012 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40012 time-attribute threshold 7</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40012 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40013 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40013 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40013 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40013 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40014 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40014 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40014 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40014 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40015 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40015 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40015 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40015 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40016 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40016 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40016 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40016 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40017 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40017 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40017 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40017 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40018 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40018 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40018 time-attribute threshold 40</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40018 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40019 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40019 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40019 time-attribute threshold 12</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40019 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40020 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40020 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40020 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40020 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40021 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40021 time-attribute interval 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40021 time-attribute threshold 8</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40021 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40022 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40022 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40022 time-attribute threshold 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40022 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40023 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40023 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40023 time-attribute threshold 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40023 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40028 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40028 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40028 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40028 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40030 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40030 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40030 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40030 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40031 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40031 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40031 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40031 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40032 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40032 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40032 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40032 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40033 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40033 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40033 time-attribute threshold 250</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40033 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40034 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40034 time-attribute interval 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40034 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40034 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40036 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40036 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40036 time-attribute threshold 7</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40036 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40037 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40037 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40037 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40037 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40040 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40040 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40040 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40040 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40044 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40044 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40044 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40044 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40059 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40059 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40059 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40059 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40078 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40078 time-attribute interval 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40078 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Inbound-VP threat-exception 40078 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
     <t>set profiles vulnerability Internal-VP rules Block-Critical-High action reset-both</t>
   </si>
   <si>
@@ -2214,414 +1398,6 @@
   </si>
   <si>
     <t>set profiles vulnerability Internal-VP rules Default-Medium-Low-Info packet-capture disable</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40001 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40001 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40001 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40001 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40003 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40003 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40003 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40003 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40004 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40004 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40004 time-attribute threshold 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40004 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40005 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40005 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40005 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40005 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40006 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40006 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40006 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40006 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40007 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40007 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40007 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40007 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40008 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40008 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40008 time-attribute threshold 25</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40008 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40009 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40009 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40009 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40009 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40010 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40010 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40010 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40010 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40011 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40011 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40011 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40011 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40012 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40012 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40012 time-attribute threshold 7</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40012 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40013 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40013 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40013 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40013 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40014 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40014 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40014 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40014 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40015 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40015 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40015 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40015 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40016 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40016 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40016 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40016 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40017 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40017 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40017 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40017 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40018 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40018 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40018 time-attribute threshold 40</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40018 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40019 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40019 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40019 time-attribute threshold 12</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40019 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40020 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40020 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40020 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40020 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40021 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40021 time-attribute interval 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40021 time-attribute threshold 8</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40021 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40022 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40022 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40022 time-attribute threshold 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40022 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40023 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40023 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40023 time-attribute threshold 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40023 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40028 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40028 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40028 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40028 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40030 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40030 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40030 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40030 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40031 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40031 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40031 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40031 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40032 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40032 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40032 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40032 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40033 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40033 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40033 time-attribute threshold 250</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40033 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40034 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40034 time-attribute interval 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40034 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40034 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40036 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40036 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40036 time-attribute threshold 7</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40036 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40037 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40037 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40037 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40037 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40040 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40040 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40040 time-attribute threshold 20</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40040 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40044 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40044 time-attribute interval 60</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40044 time-attribute threshold 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40044 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40059 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40059 time-attribute interval 30</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40059 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40059 time-attribute track-by source-and-destination</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40078 action alert</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40078 time-attribute interval 10</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40078 time-attribute threshold 100</t>
-  </si>
-  <si>
-    <t>set profiles vulnerability Internal-VP threat-exception 40078 time-attribute track-by source-and-destination</t>
   </si>
   <si>
     <t>set profiles vulnerability Alert-Only-VP rules Alert-All action alert</t>
@@ -4047,7 +2823,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A1082"/>
+  <dimension ref="A2:A674"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6135,3229 +4911,1189 @@
         <v>469</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
-        <v>470</v>
-      </c>
-    </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1">
-      <c r="A527" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1">
-      <c r="A546" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1">
-      <c r="A587" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1">
-      <c r="A670" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1">
-      <c r="A675" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="676" spans="1:1">
-      <c r="A676" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1">
-      <c r="A677" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1">
-      <c r="A678" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1">
-      <c r="A679" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1">
-      <c r="A680" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1">
-      <c r="A681" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="682" spans="1:1">
-      <c r="A682" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1">
-      <c r="A683" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1">
-      <c r="A684" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1">
-      <c r="A685" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1">
-      <c r="A686" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1">
-      <c r="A687" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="688" spans="1:1">
-      <c r="A688" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1">
-      <c r="A689" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1">
-      <c r="A690" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="691" spans="1:1">
-      <c r="A691" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1">
-      <c r="A692" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1">
-      <c r="A693" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1">
-      <c r="A694" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1">
-      <c r="A695" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1">
-      <c r="A696" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1">
-      <c r="A697" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1">
-      <c r="A698" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="699" spans="1:1">
-      <c r="A699" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="700" spans="1:1">
-      <c r="A700" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1">
-      <c r="A701" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1">
-      <c r="A702" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1">
-      <c r="A703" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1">
-      <c r="A704" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1">
-      <c r="A705" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1">
-      <c r="A706" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1">
-      <c r="A707" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1">
-      <c r="A708" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1">
-      <c r="A709" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1">
-      <c r="A710" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1">
-      <c r="A711" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1">
-      <c r="A712" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1">
-      <c r="A713" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1">
-      <c r="A714" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1">
-      <c r="A715" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1">
-      <c r="A716" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1">
-      <c r="A717" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1">
-      <c r="A718" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1">
-      <c r="A719" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1">
-      <c r="A720" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1">
-      <c r="A721" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1">
-      <c r="A722" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1">
-      <c r="A723" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1">
-      <c r="A724" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1">
-      <c r="A725" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1">
-      <c r="A726" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1">
-      <c r="A727" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1">
-      <c r="A728" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1">
-      <c r="A729" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1">
-      <c r="A730" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1">
-      <c r="A731" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1">
-      <c r="A732" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1">
-      <c r="A733" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1">
-      <c r="A734" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1">
-      <c r="A735" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1">
-      <c r="A736" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1">
-      <c r="A737" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1">
-      <c r="A738" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1">
-      <c r="A739" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1">
-      <c r="A740" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1">
-      <c r="A741" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1">
-      <c r="A742" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1">
-      <c r="A743" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1">
-      <c r="A744" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1">
-      <c r="A745" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1">
-      <c r="A746" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1">
-      <c r="A747" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1">
-      <c r="A748" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1">
-      <c r="A749" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1">
-      <c r="A750" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1">
-      <c r="A751" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1">
-      <c r="A752" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1">
-      <c r="A753" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1">
-      <c r="A754" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1">
-      <c r="A755" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1">
-      <c r="A756" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1">
-      <c r="A758" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1">
-      <c r="A759" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1">
-      <c r="A760" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1">
-      <c r="A761" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1">
-      <c r="A762" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1">
-      <c r="A763" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1">
-      <c r="A764" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1">
-      <c r="A765" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="766" spans="1:1">
-      <c r="A766" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="767" spans="1:1">
-      <c r="A767" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="768" spans="1:1">
-      <c r="A768" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="769" spans="1:1">
-      <c r="A769" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="770" spans="1:1">
-      <c r="A770" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="771" spans="1:1">
-      <c r="A771" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="772" spans="1:1">
-      <c r="A772" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="773" spans="1:1">
-      <c r="A773" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="774" spans="1:1">
-      <c r="A774" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1">
-      <c r="A775" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1">
-      <c r="A776" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1">
-      <c r="A777" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1">
-      <c r="A778" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1">
-      <c r="A779" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1">
-      <c r="A780" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1">
-      <c r="A781" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1">
-      <c r="A782" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1">
-      <c r="A783" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="784" spans="1:1">
-      <c r="A784" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1">
-      <c r="A785" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1">
-      <c r="A786" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1">
-      <c r="A787" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1">
-      <c r="A788" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1">
-      <c r="A789" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1">
-      <c r="A790" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1">
-      <c r="A791" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1">
-      <c r="A792" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1">
-      <c r="A793" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1">
-      <c r="A794" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1">
-      <c r="A795" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1">
-      <c r="A796" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1">
-      <c r="A797" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1">
-      <c r="A798" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1">
-      <c r="A799" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="800" spans="1:1">
-      <c r="A800" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1">
-      <c r="A801" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1">
-      <c r="A802" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1">
-      <c r="A803" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="804" spans="1:1">
-      <c r="A804" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="805" spans="1:1">
-      <c r="A805" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1">
-      <c r="A806" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1">
-      <c r="A807" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="808" spans="1:1">
-      <c r="A808" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="809" spans="1:1">
-      <c r="A809" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1">
-      <c r="A810" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1">
-      <c r="A811" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1">
-      <c r="A812" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1">
-      <c r="A813" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="814" spans="1:1">
-      <c r="A814" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1">
-      <c r="A815" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1">
-      <c r="A816" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1">
-      <c r="A817" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1">
-      <c r="A818" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1">
-      <c r="A819" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="820" spans="1:1">
-      <c r="A820" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1">
-      <c r="A821" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="822" spans="1:1">
-      <c r="A822" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1">
-      <c r="A823" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1">
-      <c r="A824" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1">
-      <c r="A825" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1">
-      <c r="A826" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1">
-      <c r="A827" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1">
-      <c r="A828" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1">
-      <c r="A829" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="830" spans="1:1">
-      <c r="A830" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1">
-      <c r="A831" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1">
-      <c r="A832" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1">
-      <c r="A833" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1">
-      <c r="A834" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1">
-      <c r="A835" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1">
-      <c r="A836" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1">
-      <c r="A839" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1">
-      <c r="A840" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1">
-      <c r="A841" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1">
-      <c r="A842" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1">
-      <c r="A843" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1">
-      <c r="A844" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1">
-      <c r="A845" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="846" spans="1:1">
-      <c r="A846" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1">
-      <c r="A847" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1">
-      <c r="A848" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="849" spans="1:1">
-      <c r="A849" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="850" spans="1:1">
-      <c r="A850" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="852" spans="1:1">
-      <c r="A852" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="853" spans="1:1">
-      <c r="A853" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="854" spans="1:1">
-      <c r="A854" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="856" spans="1:1">
-      <c r="A856" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="857" spans="1:1">
-      <c r="A857" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="858" spans="1:1">
-      <c r="A858" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="859" spans="1:1">
-      <c r="A859" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="860" spans="1:1">
-      <c r="A860" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="861" spans="1:1">
-      <c r="A861" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1">
-      <c r="A862" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1">
-      <c r="A863" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1">
-      <c r="A864" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1">
-      <c r="A865" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1">
-      <c r="A866" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1">
-      <c r="A867" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1">
-      <c r="A868" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1">
-      <c r="A869" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1">
-      <c r="A870" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1">
-      <c r="A871" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1">
-      <c r="A872" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="873" spans="1:1">
-      <c r="A873" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1">
-      <c r="A874" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="875" spans="1:1">
-      <c r="A875" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1">
-      <c r="A876" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="877" spans="1:1">
-      <c r="A877" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1">
-      <c r="A878" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="879" spans="1:1">
-      <c r="A879" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="880" spans="1:1">
-      <c r="A880" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="881" spans="1:1">
-      <c r="A881" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="882" spans="1:1">
-      <c r="A882" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="883" spans="1:1">
-      <c r="A883" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="884" spans="1:1">
-      <c r="A884" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="886" spans="1:1">
-      <c r="A886" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="887" spans="1:1">
-      <c r="A887" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="888" spans="1:1">
-      <c r="A888" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="889" spans="1:1">
-      <c r="A889" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="890" spans="1:1">
-      <c r="A890" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="891" spans="1:1">
-      <c r="A891" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="892" spans="1:1">
-      <c r="A892" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="893" spans="1:1">
-      <c r="A893" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="894" spans="1:1">
-      <c r="A894" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="895" spans="1:1">
-      <c r="A895" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="896" spans="1:1">
-      <c r="A896" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="897" spans="1:1">
-      <c r="A897" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="898" spans="1:1">
-      <c r="A898" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="899" spans="1:1">
-      <c r="A899" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="900" spans="1:1">
-      <c r="A900" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="901" spans="1:1">
-      <c r="A901" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="902" spans="1:1">
-      <c r="A902" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="903" spans="1:1">
-      <c r="A903" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="904" spans="1:1">
-      <c r="A904" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="905" spans="1:1">
-      <c r="A905" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="906" spans="1:1">
-      <c r="A906" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="907" spans="1:1">
-      <c r="A907" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="908" spans="1:1">
-      <c r="A908" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="909" spans="1:1">
-      <c r="A909" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="910" spans="1:1">
-      <c r="A910" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="911" spans="1:1">
-      <c r="A911" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="912" spans="1:1">
-      <c r="A912" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="913" spans="1:1">
-      <c r="A913" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="914" spans="1:1">
-      <c r="A914" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1">
-      <c r="A915" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="916" spans="1:1">
-      <c r="A916" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="917" spans="1:1">
-      <c r="A917" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="918" spans="1:1">
-      <c r="A918" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="919" spans="1:1">
-      <c r="A919" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1">
-      <c r="A920" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1">
-      <c r="A921" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1">
-      <c r="A922" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="923" spans="1:1">
-      <c r="A923" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="924" spans="1:1">
-      <c r="A924" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1">
-      <c r="A925" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1">
-      <c r="A926" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1">
-      <c r="A927" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1">
-      <c r="A928" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1">
-      <c r="A930" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1">
-      <c r="A931" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1">
-      <c r="A932" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="933" spans="1:1">
-      <c r="A933" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="934" spans="1:1">
-      <c r="A934" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1">
-      <c r="A937" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1">
-      <c r="A938" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1">
-      <c r="A940" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1">
-      <c r="A941" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1">
-      <c r="A942" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1">
-      <c r="A944" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1">
-      <c r="A947" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1">
-      <c r="A948" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1">
-      <c r="A949" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1">
-      <c r="A950" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1">
-      <c r="A951" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1">
-      <c r="A952" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1">
-      <c r="A953" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1">
-      <c r="A955" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1">
-      <c r="A956" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1">
-      <c r="A957" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1">
-      <c r="A958" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1">
-      <c r="A959" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1">
-      <c r="A960" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1">
-      <c r="A961" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1">
-      <c r="A962" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1">
-      <c r="A963" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1">
-      <c r="A964" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1">
-      <c r="A965" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1">
-      <c r="A966" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1">
-      <c r="A967" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1">
-      <c r="A968" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1">
-      <c r="A969" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1">
-      <c r="A970" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1">
-      <c r="A971" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1">
-      <c r="A972" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1">
-      <c r="A973" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1">
-      <c r="A974" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1">
-      <c r="A975" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1">
-      <c r="A976" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1">
-      <c r="A977" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1">
-      <c r="A978" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1">
-      <c r="A980" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1">
-      <c r="A981" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1">
-      <c r="A982" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1">
-      <c r="A983" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1">
-      <c r="A984" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1">
-      <c r="A985" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1">
-      <c r="A986" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1">
-      <c r="A987" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1">
-      <c r="A988" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1">
-      <c r="A989" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1">
-      <c r="A990" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1">
-      <c r="A991" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1">
-      <c r="A992" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1">
-      <c r="A993" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1">
-      <c r="A994" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1">
-      <c r="A996" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1">
-      <c r="A997" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1">
-      <c r="A998" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1">
-      <c r="A999" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1">
-      <c r="A1000" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1">
-      <c r="A1001" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1">
-      <c r="A1002" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1">
-      <c r="A1003" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1">
-      <c r="A1004" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1">
-      <c r="A1005" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1">
-      <c r="A1006" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1">
-      <c r="A1007" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1">
-      <c r="A1008" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1">
-      <c r="A1010" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1">
-      <c r="A1011" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1">
-      <c r="A1012" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1">
-      <c r="A1013" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1">
-      <c r="A1014" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:1">
-      <c r="A1015" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1">
-      <c r="A1016" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:1">
-      <c r="A1017" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:1">
-      <c r="A1018" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1">
-      <c r="A1019" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1">
-      <c r="A1020" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1">
-      <c r="A1021" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1">
-      <c r="A1022" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1">
-      <c r="A1023" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1">
-      <c r="A1024" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1">
-      <c r="A1025" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1">
-      <c r="A1026" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1">
-      <c r="A1027" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1">
-      <c r="A1028" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1">
-      <c r="A1029" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1">
-      <c r="A1030" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1">
-      <c r="A1031" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:1">
-      <c r="A1032" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:1">
-      <c r="A1033" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1">
-      <c r="A1034" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:1">
-      <c r="A1035" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1">
-      <c r="A1036" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1">
-      <c r="A1037" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1">
-      <c r="A1038" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1">
-      <c r="A1039" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1">
-      <c r="A1040" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1">
-      <c r="A1041" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1">
-      <c r="A1042" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:1">
-      <c r="A1043" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1">
-      <c r="A1044" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1">
-      <c r="A1045" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:1">
-      <c r="A1046" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:1">
-      <c r="A1047" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1">
-      <c r="A1048" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:1">
-      <c r="A1049" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1">
-      <c r="A1050" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:1">
-      <c r="A1051" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1">
-      <c r="A1052" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:1">
-      <c r="A1053" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:1">
-      <c r="A1054" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:1">
-      <c r="A1055" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:1">
-      <c r="A1056" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:1">
-      <c r="A1057" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:1">
-      <c r="A1058" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1">
-      <c r="A1059" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1">
-      <c r="A1060" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1">
-      <c r="A1061" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1">
-      <c r="A1062" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1">
-      <c r="A1063" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1">
-      <c r="A1064" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1">
-      <c r="A1065" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1">
-      <c r="A1066" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1">
-      <c r="A1068" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1">
-      <c r="A1069" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1">
-      <c r="A1070" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1">
-      <c r="A1071" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1">
-      <c r="A1072" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1">
-      <c r="A1073" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:1">
-      <c r="A1074" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:1">
-      <c r="A1075" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:1">
-      <c r="A1076" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:1">
-      <c r="A1077" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:1">
-      <c r="A1079" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:1">
-      <c r="A1080" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1">
-      <c r="A1081" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:1">
-      <c r="A1082" t="s">
-        <v>1114</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -47,7 +47,7 @@
     <t>PANORAMA_IP</t>
   </si>
   <si>
-    <t>192.168.55.6</t>
+    <t>192.168.55.161</t>
   </si>
   <si>
     <t>Panorama IP</t>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="712">
   <si>
     <t>Variable Name</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>IP address for scheduled config exports</t>
+  </si>
+  <si>
+    <t>CONFIG_EXPORT_USER</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>username for config export</t>
+  </si>
+  <si>
+    <t>CONFIG_EXPORT_PASSWORD</t>
+  </si>
+  <si>
+    <t>password for config export</t>
   </si>
   <si>
     <t>TEMPLATE</t>
@@ -2476,7 +2491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2579,40 +2594,40 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -2634,62 +2649,62 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -2711,95 +2726,95 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
-      </c>
-      <c r="B29">
-        <v>525600</v>
       </c>
       <c r="C29" t="s">
         <v>83</v>
@@ -2814,6 +2829,28 @@
       </c>
       <c r="C30" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>525600</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2831,3269 +2868,3269 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B11)</f>
+        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B13)</f>
+        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B14)</f>
+        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B15)</f>
+        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B20)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B21)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B16)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B29)</f>
+        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
+        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="707">
   <si>
     <t>Variable Name</t>
   </si>
@@ -78,21 +78,6 @@
   </si>
   <si>
     <t>IP address for scheduled config exports</t>
-  </si>
-  <si>
-    <t>CONFIG_EXPORT_USER</t>
-  </si>
-  <si>
-    <t>testuser</t>
-  </si>
-  <si>
-    <t>username for config export</t>
-  </si>
-  <si>
-    <t>CONFIG_EXPORT_PASSWORD</t>
-  </si>
-  <si>
-    <t>password for config export</t>
   </si>
   <si>
     <t>TEMPLATE</t>
@@ -2491,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2594,40 +2579,40 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -2649,62 +2634,62 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -2726,95 +2711,95 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
         <v>82</v>
+      </c>
+      <c r="B29">
+        <v>525600</v>
       </c>
       <c r="C29" t="s">
         <v>83</v>
@@ -2829,28 +2814,6 @@
       </c>
       <c r="C30" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31">
-        <v>525600</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2868,3269 +2831,3269 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B13)</f>
+        <f>SUBSTITUTE("set deviceconfig system hostname {{ FW_NAME }}", "{{ FW_NAME }}", 'values'!B11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B15)</f>
+        <f>SUBSTITUTE("set deviceconfig system ip-address {{ MGMT_IP }}", "{{ MGMT_IP }}", 'values'!B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B16)</f>
+        <f>SUBSTITUTE("set deviceconfig system netmask {{ MGMT_MASK }}", "{{ MGMT_MASK }}", 'values'!B14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B17)</f>
+        <f>SUBSTITUTE("set deviceconfig system default-gateway {{ MGMT_DG }}", "{{ MGMT_DG }}", 'values'!B15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B22)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers primary {{ DNS_1 }}", "{{ DNS_1 }}", 'values'!B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B23)</f>
+        <f>SUBSTITUTE("set deviceconfig system dns-setting servers secondary {{ DNS_2 }}", "{{ DNS_2 }}", 'values'!B21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B18)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers primary-ntp-server ntp-server-address {{ NTP_1 }}", "{{ NTP_1 }}", 'values'!B16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B19)</f>
+        <f>SUBSTITUTE("set deviceconfig system ntp-servers secondary-ntp-server ntp-server-address {{ NTP_2 }}", "{{ NTP_2 }}", 'values'!B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B20)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} password", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B20)</f>
+        <f>SUBSTITUTE("set mgt-config users {{ ADMINISTRATOR_USERNAME }} permissions role-based superuser yes", "{{ ADMINISTRATOR_USERNAME }}", 'values'!B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B31)</f>
+        <f>SUBSTITUTE("set deviceconfig setting management api key lifetime {{ API_KEY_LIFETIME }}", "{{ API_KEY_LIFETIME }}", 'values'!B29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B27)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B28)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B29)</f>
+        <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B30)</f>
+        <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
+        <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B24)</f>
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B25)</f>
+        <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="704">
   <si>
     <t>Variable Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>PANORAMA_IP</t>
   </si>
   <si>
-    <t>192.168.55.8</t>
+    <t>192.168.55.161</t>
   </si>
   <si>
     <t>Panorama IP</t>
@@ -263,10 +263,19 @@
     <t>syslog server ip address</t>
   </si>
   <si>
+    <t>API_KEY_LIFETIME</t>
+  </si>
+  <si>
+    <t>lifetime for the api key in minutes</t>
+  </si>
+  <si>
     <t>INCLUDE_PAN_EDL</t>
   </si>
   <si>
-    <t>include the predefined Palo Alto Networks external lists</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>include the predefined Palo Alto Networks external lists security rules</t>
   </si>
   <si>
     <t># set command configuration for panos version 8.1</t>
@@ -2458,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2780,11 +2789,22 @@
       <c r="A29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="b">
-        <v>1</v>
+      <c r="B29">
+        <v>525600</v>
       </c>
       <c r="C29" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2802,27 +2822,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2875,7 +2895,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2892,262 +2912,262 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -3170,17 +3190,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -3191,347 +3211,347 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -3548,152 +3568,152 @@
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="189" spans="1:1">
@@ -3710,62 +3730,62 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:1">
@@ -3782,62 +3802,62 @@
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="217" spans="1:1">
@@ -3854,67 +3874,67 @@
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:1">
@@ -3931,37 +3951,37 @@
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -3978,2072 +3998,2072 @@
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="690">
   <si>
     <t>Variable Name</t>
   </si>
@@ -281,7 +281,7 @@
     <t># set command configuration for panos version 8.1</t>
   </si>
   <si>
-    <t># commands are expected to be load in order</t>
+    <t># commands are expected to be loaded in order</t>
   </si>
   <si>
     <t># this template uses jinja format</t>
@@ -296,9 +296,45 @@
     <t># remove admin/admin default and add user defined super user</t>
   </si>
   <si>
+    <t># best-practice to remove user=admin</t>
+  </si>
+  <si>
     <t>delete mgt-config users admin</t>
   </si>
   <si>
+    <t># set password complexity - will not impact existing users</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity enabled yes</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-length 12</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-uppercase-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-lowercase-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-numeric-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-special-characters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity block-username-inclusion yes</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity password-history-count 24</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity new-password-differs-by-characters 3</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity password-change expiration-period 90</t>
+  </si>
+  <si>
     <t># device system and settings configuration</t>
   </si>
   <si>
@@ -344,6 +380,18 @@
     <t>set deviceconfig system update-schedule wildfire recurring every-min action download-and-install</t>
   </si>
   <si>
+    <t>set deviceconfig system update-schedule global-protect-datafile recurring hourly at 40</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-datafile recurring hourly action download-and-install</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-clientless-vpn recurring hourly at 50</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-clientless-vpn recurring hourly action download-and-install</t>
+  </si>
+  <si>
     <t>set deviceconfig system snmp-setting access-setting version v3</t>
   </si>
   <si>
@@ -386,6 +434,18 @@
     <t>set deviceconfig setting management max-rows-in-csv-export 1048576</t>
   </si>
   <si>
+    <t>set deviceconfig setting management admin-lockout failed-attempts 5</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management admin-lockout lockout-time 30</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management idle-timeout 10</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management auto-acquire-commit-lock yes</t>
+  </si>
+  <si>
     <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
   </si>
   <si>
@@ -413,6 +473,9 @@
     <t>set deviceconfig setting wildfire file-size-limit linux size-limit 2</t>
   </si>
   <si>
+    <t>set deviceconfig setting wildfire file-size-limit script size-limit 2000</t>
+  </si>
+  <si>
     <t>set deviceconfig setting wildfire report-benign-file yes</t>
   </si>
   <si>
@@ -641,28 +704,7 @@
     <t>set tag Internal comments ""Internal to Internal""</t>
   </si>
   <si>
-    <t>set tag iron-skillet-version comments ""version 1.0.5: version of this iron-skillet template file""</t>
-  </si>
-  <si>
-    <t>#External Dynamic List values used in security rules</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip recurring hourly</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv4.txt</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip description ""IPv4 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip recurring hourly</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv6.txt</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip description ""IPv6 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
+    <t>set tag iron-skillet-version comments ""version 1.0.6: version of this iron-skillet template file""</t>
   </si>
   <si>
     <t>#Address objects used for sinkholing and security rules match</t>
@@ -1619,91 +1661,7 @@
     <t>set rulebase security rules ""DNS Sinkhole Block"" tag Outbound</t>
   </si>
   <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" description ""Block outbound sessions with a destination address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" to any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" from any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" destination [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source-user any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" category any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" application any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" service any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" hip-profiles any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" action deny</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" log-setting default</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" tag Outbound</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" disabled yes</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" description ""Block inbound sessions with a source address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" to any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" from any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" destination any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source-user any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" category any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" application any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" service any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" hip-profiles any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" action deny</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" log-setting default</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" tag Inbound</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" disabled yes</t>
-  </si>
-  <si>
-    <t>Recommended Decryption Profiles</t>
+    <t>#Recommended Decryption Profiles</t>
   </si>
   <si>
     <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-expired-certificate yes</t>
@@ -2814,7 +2772,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A668"/>
+  <dimension ref="A2:A655"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2910,8 +2868,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2920,398 +2878,398 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile gateway {{ EMAIL_PROFILE_GATEWAY }}", "{{ EMAIL_PROFILE_GATEWAY }}", 'values'!B25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="98" spans="1:1">
+      <c r="A98">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile from {{ EMAIL_PROFILE_FROM }}", "{{ EMAIL_PROFILE_FROM }}", 'values'!B26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="99" spans="1:1">
+      <c r="A99">
         <f>SUBSTITUTE("set shared log-settings email Sample_Email_Profile server Sample_Email_Profile to {{ EMAIL_PROFILE_TO }}", "{{ EMAIL_PROFILE_TO }}", 'values'!B27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
         <f>SUBSTITUTE("set shared log-settings syslog Sample_Syslog_Profile server Sample_Syslog server {{ SYSLOG_SERVER }}", "{{ SYSLOG_SERVER }}", 'values'!B28)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -3319,198 +3277,198 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3549,165 +3507,165 @@
         <v>215</v>
       </c>
     </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155">
+      <c r="A155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
         <f>SUBSTITUTE("set address Sinkhole-IPv4 ip-netmask {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156">
+    <row r="171" spans="1:1">
+      <c r="A171">
         <f>SUBSTITUTE("set address Sinkhole-IPv6 ip-netmask {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3717,353 +3675,353 @@
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189">
+      <c r="A189" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190">
+    <row r="205" spans="1:1">
+      <c r="A205">
         <f>SUBSTITUTE("set profiles spyware Outbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203">
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204">
+    <row r="219" spans="1:1">
+      <c r="A219">
         <f>SUBSTITUTE("set profiles spyware Inbound-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217">
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218">
+    <row r="233" spans="1:1">
+      <c r="A233">
         <f>SUBSTITUTE("set profiles spyware Internal-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232">
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233">
+    <row r="248" spans="1:1">
+      <c r="A248">
         <f>SUBSTITUTE("set profiles spyware Alert-Only-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241">
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv4-address {{ SINKHOLE_IPV4 }}", "{{ SINKHOLE_IPV4 }}", 'values'!B22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242">
+    <row r="257" spans="1:1">
+      <c r="A257">
         <f>SUBSTITUTE("set profiles spyware Exception-AS botnet-domains sinkhole ipv6-address {{ SINKHOLE_IPV6 }}", "{{ SINKHOLE_IPV6 }}", 'values'!B23)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:1">
@@ -4076,68 +4034,68 @@
         <v>305</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>306</v>
-      </c>
-    </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4211,243 +4169,243 @@
         <v>332</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>333</v>
-      </c>
-    </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4521,223 +4479,223 @@
         <v>394</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
-        <v>395</v>
-      </c>
-    </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4811,18 +4769,18 @@
         <v>452</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
-        <v>453</v>
-      </c>
-    </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4896,78 +4854,78 @@
         <v>469</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
-        <v>470</v>
-      </c>
-    </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5041,1029 +4999,959 @@
         <v>498</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
-        <v>499</v>
-      </c>
-    </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1">
-      <c r="A508" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>561</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1">
-      <c r="A527" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>579</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1">
-      <c r="A552" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>618</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1">
-      <c r="A640" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1">
-      <c r="A651" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>689</v>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1">
-      <c r="A656" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1">
-      <c r="A657" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1">
-      <c r="A658" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1">
-      <c r="A660" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1">
-      <c r="A661" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1">
-      <c r="A662" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1">
-      <c r="A663" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1">
-      <c r="A665" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1">
-      <c r="A666" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1">
-      <c r="A667" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1">
-      <c r="A668" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -203,7 +203,7 @@
     <t>SINKHOLE_IPV4</t>
   </si>
   <si>
-    <t>72.5.65.111</t>
+    <t>sinkhole.paloaltonetworks.com</t>
   </si>
   <si>
     <t>sinkhole address IPv4</t>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="702">
   <si>
     <t>Variable Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PANORAMA_TYPE</t>
   </si>
   <si>
-    <t>cloud</t>
+    <t>static</t>
   </si>
   <si>
     <t>Panorama management IP type - static or cloud (for dhcp)</t>
@@ -47,7 +47,7 @@
     <t>PANORAMA_IP</t>
   </si>
   <si>
-    <t>192.168.55.8</t>
+    <t>192.168.55.161</t>
   </si>
   <si>
     <t>Panorama IP</t>
@@ -119,9 +119,6 @@
     <t>MGMT_TYPE</t>
   </si>
   <si>
-    <t>dhcp-client</t>
-  </si>
-  <si>
     <t>firewall management IP type (static or dhcp-client)</t>
   </si>
   <si>
@@ -272,7 +269,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>include the predefined Palo Alto Networks external lists</t>
+    <t>include the predefined Palo Alto Networks external lists security rules</t>
   </si>
   <si>
     <t># set command configuration for panos version 8.0</t>
@@ -2600,197 +2597,197 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2808,27 +2805,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2881,7 +2878,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2898,262 +2895,262 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -3176,17 +3173,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -3197,347 +3194,347 @@
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:1">
@@ -3554,152 +3551,152 @@
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:1">
@@ -3716,62 +3713,62 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:1">
@@ -3788,62 +3785,62 @@
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:1">
@@ -3860,67 +3857,67 @@
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:1">
@@ -3937,37 +3934,37 @@
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="241" spans="1:1">
@@ -3984,2072 +3981,2072 @@
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -980,13 +980,13 @@
     <t>set profiles url-filtering Alert-Only-URL credential-enforcement log-severity medium</t>
   </si>
   <si>
-    <t>set profiles url-filtering Alert-Only-URL credential-enforcement alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+    <t>set profiles url-filtering Alert-Only-URL credential-enforcement alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Alert-Only-URL action block</t>
   </si>
   <si>
-    <t>set profiles url-filtering Alert-Only-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+    <t>set profiles url-filtering Alert-Only-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Exception-URL credential-enforcement mode ip-user</t>
@@ -995,7 +995,7 @@
     <t>set profiles url-filtering Exception-URL credential-enforcement log-severity high</t>
   </si>
   <si>
-    <t>set profiles url-filtering Exception-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List ]</t>
+    <t>set profiles url-filtering Exception-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Exception-URL log-http-hdr-user-agent yes</t>

--- a/templates/panos/set_commands/iron_skillet_panos_full.xlsx
+++ b/templates/panos/set_commands/iron_skillet_panos_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="687">
   <si>
     <t>Variable Name</t>
   </si>
@@ -290,9 +290,45 @@
     <t># remove admin/admin default and add user defined super user</t>
   </si>
   <si>
+    <t># best-practice to remove user=admin</t>
+  </si>
+  <si>
     <t>delete mgt-config users admin</t>
   </si>
   <si>
+    <t># set password complexity - will not impact existing users</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity enabled yes</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-length 12</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-uppercase-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-lowercase-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-numeric-letters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity minimum-special-characters 1</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity block-username-inclusion yes</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity password-history-count 24</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity new-password-differs-by-characters 3</t>
+  </si>
+  <si>
+    <t>set mgt-config password-complexity password-change expiration-period 90</t>
+  </si>
+  <si>
     <t># device system and settings configuration</t>
   </si>
   <si>
@@ -338,6 +374,18 @@
     <t>set deviceconfig system update-schedule wildfire recurring every-min action download-and-install</t>
   </si>
   <si>
+    <t>set deviceconfig system update-schedule global-protect-datafile recurring hourly at 40</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-datafile recurring hourly action download-and-install</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-clientless-vpn recurring hourly at 50</t>
+  </si>
+  <si>
+    <t>set deviceconfig system update-schedule global-protect-clientless-vpn recurring hourly action download-and-install</t>
+  </si>
+  <si>
     <t>set deviceconfig system snmp-setting access-setting version v3</t>
   </si>
   <si>
@@ -380,6 +428,18 @@
     <t>set deviceconfig setting management max-rows-in-csv-export 1048576</t>
   </si>
   <si>
+    <t>set deviceconfig setting management admin-lockout failed-attempts 5</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management admin-lockout lockout-time 30</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management idle-timeout 10</t>
+  </si>
+  <si>
+    <t>set deviceconfig setting management auto-acquire-commit-lock yes</t>
+  </si>
+  <si>
     <t>set deviceconfig setting wildfire file-size-limit pe size-limit 10</t>
   </si>
   <si>
@@ -635,28 +695,7 @@
     <t>set tag Internal comments ""Internal to Internal""</t>
   </si>
   <si>
-    <t>set tag iron-skillet-version comments ""version 1.0.5: version of this iron-skillet template file""</t>
-  </si>
-  <si>
-    <t>#External Dynamic List values used in security rules</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip recurring hourly</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv4.txt</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv4"" type ip description ""IPv4 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip recurring hourly</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip url http://www.team-cymru.org/Services/Bogons/fullbogons-ipv6.txt</t>
-  </si>
-  <si>
-    <t>set external-list ""Team Cymru Bogons IPv6"" type ip description ""IPv6 addresses that should not be routed across the Internet. Either reserved IP address space or unassigned and may be used for malicious purposes. More information: http://www.team-cymru.com/bogon-reference.html""</t>
+    <t>set tag iron-skillet-version comments ""version 1.0.6: version of this iron-skillet template file""</t>
   </si>
   <si>
     <t>#Address objects used for sinkholing and security rules match</t>
@@ -932,13 +971,13 @@
     <t>set profiles url-filtering Alert-Only-URL credential-enforcement log-severity medium</t>
   </si>
   <si>
-    <t>set profiles url-filtering Alert-Only-URL credential-enforcement alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+    <t>set profiles url-filtering Alert-Only-URL credential-enforcement alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Alert-Only-URL action block</t>
   </si>
   <si>
-    <t>set profiles url-filtering Alert-Only-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting ]</t>
+    <t>set profiles url-filtering Alert-Only-URL alert [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Exception-URL credential-enforcement mode ip-user</t>
@@ -947,7 +986,7 @@
     <t>set profiles url-filtering Exception-URL credential-enforcement log-severity high</t>
   </si>
   <si>
-    <t>set profiles url-filtering Exception-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List ]</t>
+    <t>set profiles url-filtering Exception-URL credential-enforcement block [ abortion abused-drugs adult alcohol-and-tobacco auctions business-and-economy command-and-control computer-and-internet-info content-delivery-networks copyright-infringement dating dynamic-dns educational-institutions entertainment-and-arts extremism financial-services gambling games government hacking health-and-medicine home-and-garden hunting-and-fishing insufficient-content internet-communications-and-telephony internet-portals job-search legal malware military motor-vehicles music news not-resolved nudity online-storage-and-backup parked peer-to-peer personal-sites-and-blogs philosophy-and-political-advocacy phishing private-ip-addresses proxy-avoidance-and-anonymizers questionable real-estate recreation-and-hobbies reference-and-research religion search-engines sex-education shareware-and-freeware shopping social-networking society sports stock-advice-and-tools streaming-media swimsuits-and-intimate-apparel training-and-tools translation travel unknown weapons web-advertisements web-based-email web-hosting Black-List White-List ]</t>
   </si>
   <si>
     <t>set profiles url-filtering Exception-URL log-http-hdr-user-agent yes</t>
@@ -1613,91 +1652,7 @@
     <t>set rulebase security rules ""DNS Sinkhole Block"" tag Outbound</t>
   </si>
   <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" description ""Block outbound sessions with a destination address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" to any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" from any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" destination [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" source-user any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" category any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" application any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" service any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" hip-profiles any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" action deny</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" log-setting default</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" tag Outbound</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Outbound Bogon Block Rule"" disabled yes</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" description ""Block inbound sessions with a source address matching a known bogon address that should not be transitting the firewall. Add known exceptions to the rule before activating.""</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" to any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" from any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source [ ""Team Cymru Bogons IPv4"" ""Team Cymru Bogons IPv6"" ]</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" destination any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" source-user any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" category any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" application any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" service any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" hip-profiles any</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" action deny</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" log-setting default</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" tag Inbound</t>
-  </si>
-  <si>
-    <t>set rulebase security rules ""Inbound Bogon Block Rule"" disabled yes</t>
-  </si>
-  <si>
-    <t>Recommended Decryption Profiles</t>
+    <t>#Recommended Decryption Profiles</t>
   </si>
   <si>
     <t>set profiles decryption Recommended_Decryption_Profile ssl-forward-proxy block-expired-certificate yes</t>
@@ -2797,7 +2752,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A668"/>
+  <dimension ref="A2:A654"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2893,8 +2848,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2903,393 +2858,393 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78"